--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="167">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -397,6 +397,12 @@
     <t>['11']</t>
   </si>
   <si>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['56', '79']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -437,9 +443,6 @@
   </si>
   <si>
     <t>['2', '20']</t>
-  </si>
-  <si>
-    <t>['15']</t>
   </si>
   <si>
     <t>['53', '76']</t>
@@ -509,6 +512,9 @@
   </si>
   <si>
     <t>['55', '66', '74']</t>
+  </si>
+  <si>
+    <t>['67']</t>
   </si>
 </sst>
 </file>
@@ -870,7 +876,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP76"/>
+  <dimension ref="A1:BP78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1335,7 +1341,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1416,7 +1422,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ3">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1622,7 +1628,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ4">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1747,7 +1753,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -2031,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ6">
         <v>1.13</v>
@@ -2365,7 +2371,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2443,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -3189,7 +3195,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3270,7 +3276,7 @@
         <v>1</v>
       </c>
       <c r="AQ12">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3888,7 +3894,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ15">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR15">
         <v>1.3</v>
@@ -4013,7 +4019,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4297,7 +4303,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ17">
         <v>2.43</v>
@@ -4425,7 +4431,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4503,7 +4509,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ18">
         <v>0.86</v>
@@ -4631,7 +4637,7 @@
         <v>93</v>
       </c>
       <c r="P19" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q19">
         <v>1.83</v>
@@ -4918,7 +4924,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ20">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR20">
         <v>0.95</v>
@@ -5043,7 +5049,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5249,7 +5255,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5536,7 +5542,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ23">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR23">
         <v>0.7</v>
@@ -5661,7 +5667,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -5867,7 +5873,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6279,7 +6285,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6357,10 +6363,10 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ27">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR27">
         <v>0.98</v>
@@ -6691,7 +6697,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -6769,7 +6775,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ29">
         <v>1.25</v>
@@ -6978,7 +6984,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ30">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR30">
         <v>1.03</v>
@@ -7103,7 +7109,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -7309,7 +7315,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8339,7 +8345,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -8751,7 +8757,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q39">
         <v>1.8</v>
@@ -8829,10 +8835,10 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ39">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR39">
         <v>2.18</v>
@@ -9038,7 +9044,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ40">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR40">
         <v>1.6</v>
@@ -9241,7 +9247,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ41">
         <v>1.71</v>
@@ -9369,7 +9375,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q42">
         <v>1.95</v>
@@ -9781,7 +9787,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9987,7 +9993,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10065,7 +10071,7 @@
         <v>0.67</v>
       </c>
       <c r="AP45">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ45">
         <v>1.38</v>
@@ -10193,7 +10199,7 @@
         <v>81</v>
       </c>
       <c r="P46" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -10605,7 +10611,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11017,7 +11023,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q50">
         <v>6.1</v>
@@ -11095,7 +11101,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ50">
         <v>1.71</v>
@@ -11304,7 +11310,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ51">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR51">
         <v>1.32</v>
@@ -11429,7 +11435,7 @@
         <v>81</v>
       </c>
       <c r="P52" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q52">
         <v>2.31</v>
@@ -11841,7 +11847,7 @@
         <v>111</v>
       </c>
       <c r="P54" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12047,7 +12053,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q55">
         <v>2.1</v>
@@ -12128,7 +12134,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ55">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR55">
         <v>1.92</v>
@@ -12253,7 +12259,7 @@
         <v>81</v>
       </c>
       <c r="P56" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -12459,7 +12465,7 @@
         <v>115</v>
       </c>
       <c r="P57" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q57">
         <v>1.95</v>
@@ -12537,7 +12543,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -12665,7 +12671,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12871,7 +12877,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -13077,7 +13083,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q60">
         <v>3.6</v>
@@ -13283,7 +13289,7 @@
         <v>89</v>
       </c>
       <c r="P61" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13361,7 +13367,7 @@
         <v>0.6</v>
       </c>
       <c r="AP61">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ61">
         <v>0.86</v>
@@ -13489,7 +13495,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -13570,7 +13576,7 @@
         <v>1</v>
       </c>
       <c r="AQ62">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR62">
         <v>1.13</v>
@@ -13695,7 +13701,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q63">
         <v>4.3</v>
@@ -13901,7 +13907,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14107,7 +14113,7 @@
         <v>120</v>
       </c>
       <c r="P65" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14597,7 +14603,7 @@
         <v>1.29</v>
       </c>
       <c r="AP67">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ67">
         <v>1.25</v>
@@ -14931,7 +14937,7 @@
         <v>123</v>
       </c>
       <c r="P69" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15137,7 +15143,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q70">
         <v>3.2</v>
@@ -15215,7 +15221,7 @@
         <v>2.33</v>
       </c>
       <c r="AP70">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ70">
         <v>2.43</v>
@@ -15343,7 +15349,7 @@
         <v>114</v>
       </c>
       <c r="P71" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q71">
         <v>4.75</v>
@@ -15424,7 +15430,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ71">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR71">
         <v>1.47</v>
@@ -16167,7 +16173,7 @@
         <v>125</v>
       </c>
       <c r="P75" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q75">
         <v>2.91</v>
@@ -16373,7 +16379,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -16529,6 +16535,418 @@
         <v>0</v>
       </c>
       <c r="BP76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7483751</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45619.45833333334</v>
+      </c>
+      <c r="F77">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>74</v>
+      </c>
+      <c r="H77" t="s">
+        <v>77</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77" t="s">
+        <v>127</v>
+      </c>
+      <c r="P77" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q77">
+        <v>2.3</v>
+      </c>
+      <c r="R77">
+        <v>2.2</v>
+      </c>
+      <c r="S77">
+        <v>4.5</v>
+      </c>
+      <c r="T77">
+        <v>1.34</v>
+      </c>
+      <c r="U77">
+        <v>3.1</v>
+      </c>
+      <c r="V77">
+        <v>2.6</v>
+      </c>
+      <c r="W77">
+        <v>1.46</v>
+      </c>
+      <c r="X77">
+        <v>6.1</v>
+      </c>
+      <c r="Y77">
+        <v>1.1</v>
+      </c>
+      <c r="Z77">
+        <v>1.76</v>
+      </c>
+      <c r="AA77">
+        <v>3.45</v>
+      </c>
+      <c r="AB77">
+        <v>3.8</v>
+      </c>
+      <c r="AC77">
+        <v>1.01</v>
+      </c>
+      <c r="AD77">
+        <v>11</v>
+      </c>
+      <c r="AE77">
+        <v>1.2</v>
+      </c>
+      <c r="AF77">
+        <v>4</v>
+      </c>
+      <c r="AG77">
+        <v>1.8</v>
+      </c>
+      <c r="AH77">
+        <v>1.94</v>
+      </c>
+      <c r="AI77">
+        <v>1.67</v>
+      </c>
+      <c r="AJ77">
+        <v>2.1</v>
+      </c>
+      <c r="AK77">
+        <v>1.19</v>
+      </c>
+      <c r="AL77">
+        <v>1.22</v>
+      </c>
+      <c r="AM77">
+        <v>1.92</v>
+      </c>
+      <c r="AN77">
+        <v>2.14</v>
+      </c>
+      <c r="AO77">
+        <v>2.14</v>
+      </c>
+      <c r="AP77">
+        <v>2.25</v>
+      </c>
+      <c r="AQ77">
+        <v>1.88</v>
+      </c>
+      <c r="AR77">
+        <v>2</v>
+      </c>
+      <c r="AS77">
+        <v>1.31</v>
+      </c>
+      <c r="AT77">
+        <v>3.31</v>
+      </c>
+      <c r="AU77">
+        <v>8</v>
+      </c>
+      <c r="AV77">
+        <v>2</v>
+      </c>
+      <c r="AW77">
+        <v>6</v>
+      </c>
+      <c r="AX77">
+        <v>12</v>
+      </c>
+      <c r="AY77">
+        <v>19</v>
+      </c>
+      <c r="AZ77">
+        <v>19</v>
+      </c>
+      <c r="BA77">
+        <v>13</v>
+      </c>
+      <c r="BB77">
+        <v>3</v>
+      </c>
+      <c r="BC77">
+        <v>16</v>
+      </c>
+      <c r="BD77">
+        <v>0</v>
+      </c>
+      <c r="BE77">
+        <v>0</v>
+      </c>
+      <c r="BF77">
+        <v>0</v>
+      </c>
+      <c r="BG77">
+        <v>0</v>
+      </c>
+      <c r="BH77">
+        <v>0</v>
+      </c>
+      <c r="BI77">
+        <v>0</v>
+      </c>
+      <c r="BJ77">
+        <v>0</v>
+      </c>
+      <c r="BK77">
+        <v>0</v>
+      </c>
+      <c r="BL77">
+        <v>0</v>
+      </c>
+      <c r="BM77">
+        <v>0</v>
+      </c>
+      <c r="BN77">
+        <v>0</v>
+      </c>
+      <c r="BO77">
+        <v>0</v>
+      </c>
+      <c r="BP77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7483752</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45619.5625</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78" t="s">
+        <v>76</v>
+      </c>
+      <c r="H78" t="s">
+        <v>75</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>2</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>3</v>
+      </c>
+      <c r="O78" t="s">
+        <v>128</v>
+      </c>
+      <c r="P78" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q78">
+        <v>3</v>
+      </c>
+      <c r="R78">
+        <v>2.05</v>
+      </c>
+      <c r="S78">
+        <v>3.3</v>
+      </c>
+      <c r="T78">
+        <v>1.4</v>
+      </c>
+      <c r="U78">
+        <v>2.75</v>
+      </c>
+      <c r="V78">
+        <v>2.97</v>
+      </c>
+      <c r="W78">
+        <v>1.36</v>
+      </c>
+      <c r="X78">
+        <v>7.3</v>
+      </c>
+      <c r="Y78">
+        <v>1.07</v>
+      </c>
+      <c r="Z78">
+        <v>2.18</v>
+      </c>
+      <c r="AA78">
+        <v>3.3</v>
+      </c>
+      <c r="AB78">
+        <v>2.79</v>
+      </c>
+      <c r="AC78">
+        <v>1.02</v>
+      </c>
+      <c r="AD78">
+        <v>7.4</v>
+      </c>
+      <c r="AE78">
+        <v>1.33</v>
+      </c>
+      <c r="AF78">
+        <v>3.1</v>
+      </c>
+      <c r="AG78">
+        <v>2.01</v>
+      </c>
+      <c r="AH78">
+        <v>1.81</v>
+      </c>
+      <c r="AI78">
+        <v>1.78</v>
+      </c>
+      <c r="AJ78">
+        <v>1.95</v>
+      </c>
+      <c r="AK78">
+        <v>1.42</v>
+      </c>
+      <c r="AL78">
+        <v>1.25</v>
+      </c>
+      <c r="AM78">
+        <v>1.55</v>
+      </c>
+      <c r="AN78">
+        <v>0.29</v>
+      </c>
+      <c r="AO78">
+        <v>0.14</v>
+      </c>
+      <c r="AP78">
+        <v>0.63</v>
+      </c>
+      <c r="AQ78">
+        <v>0.13</v>
+      </c>
+      <c r="AR78">
+        <v>1.13</v>
+      </c>
+      <c r="AS78">
+        <v>1.33</v>
+      </c>
+      <c r="AT78">
+        <v>2.46</v>
+      </c>
+      <c r="AU78">
+        <v>6</v>
+      </c>
+      <c r="AV78">
+        <v>4</v>
+      </c>
+      <c r="AW78">
+        <v>8</v>
+      </c>
+      <c r="AX78">
+        <v>8</v>
+      </c>
+      <c r="AY78">
+        <v>18</v>
+      </c>
+      <c r="AZ78">
+        <v>17</v>
+      </c>
+      <c r="BA78">
+        <v>6</v>
+      </c>
+      <c r="BB78">
+        <v>2</v>
+      </c>
+      <c r="BC78">
+        <v>8</v>
+      </c>
+      <c r="BD78">
+        <v>0</v>
+      </c>
+      <c r="BE78">
+        <v>0</v>
+      </c>
+      <c r="BF78">
+        <v>0</v>
+      </c>
+      <c r="BG78">
+        <v>0</v>
+      </c>
+      <c r="BH78">
+        <v>0</v>
+      </c>
+      <c r="BI78">
+        <v>1.48</v>
+      </c>
+      <c r="BJ78">
+        <v>2.54</v>
+      </c>
+      <c r="BK78">
+        <v>1.81</v>
+      </c>
+      <c r="BL78">
+        <v>1.98</v>
+      </c>
+      <c r="BM78">
+        <v>2.27</v>
+      </c>
+      <c r="BN78">
+        <v>1.6</v>
+      </c>
+      <c r="BO78">
+        <v>0</v>
+      </c>
+      <c r="BP78">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="167">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -397,9 +397,6 @@
     <t>['11']</t>
   </si>
   <si>
-    <t>['15']</t>
-  </si>
-  <si>
     <t>['56', '79']</t>
   </si>
   <si>
@@ -443,6 +440,9 @@
   </si>
   <si>
     <t>['2', '20']</t>
+  </si>
+  <si>
+    <t>['15']</t>
   </si>
   <si>
     <t>['53', '76']</t>
@@ -876,7 +876,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP78"/>
+  <dimension ref="A1:BP77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1341,7 +1341,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1422,7 +1422,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ3">
-        <v>1.88</v>
+        <v>2.14</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1753,7 +1753,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AQ6">
         <v>1.13</v>
@@ -2371,7 +2371,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -3195,7 +3195,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3276,7 +3276,7 @@
         <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1.88</v>
+        <v>2.14</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4431,7 +4431,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4509,7 +4509,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AQ18">
         <v>0.86</v>
@@ -4637,7 +4637,7 @@
         <v>93</v>
       </c>
       <c r="P19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q19">
         <v>1.83</v>
@@ -4924,7 +4924,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ20">
-        <v>1.88</v>
+        <v>2.14</v>
       </c>
       <c r="AR20">
         <v>0.95</v>
@@ -5049,7 +5049,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5255,7 +5255,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5667,7 +5667,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -5873,7 +5873,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6285,7 +6285,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6366,7 +6366,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ27">
-        <v>1.88</v>
+        <v>2.14</v>
       </c>
       <c r="AR27">
         <v>0.98</v>
@@ -6697,7 +6697,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -6775,7 +6775,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AQ29">
         <v>1.25</v>
@@ -7109,7 +7109,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -7315,7 +7315,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8835,7 +8835,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AQ39">
         <v>0.13</v>
@@ -9044,7 +9044,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ40">
-        <v>1.88</v>
+        <v>2.14</v>
       </c>
       <c r="AR40">
         <v>1.6</v>
@@ -9247,7 +9247,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AQ41">
         <v>1.71</v>
@@ -12134,7 +12134,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ55">
-        <v>1.88</v>
+        <v>2.14</v>
       </c>
       <c r="AR55">
         <v>1.92</v>
@@ -12543,7 +12543,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -12671,7 +12671,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -15221,7 +15221,7 @@
         <v>2.33</v>
       </c>
       <c r="AP70">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AQ70">
         <v>2.43</v>
@@ -15430,7 +15430,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ71">
-        <v>1.88</v>
+        <v>2.14</v>
       </c>
       <c r="AR71">
         <v>1.47</v>
@@ -16543,7 +16543,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>7483751</v>
+        <v>7483752</v>
       </c>
       <c r="C77" t="s">
         <v>68</v>
@@ -16552,157 +16552,157 @@
         <v>69</v>
       </c>
       <c r="E77" s="2">
-        <v>45619.45833333334</v>
+        <v>45618.875</v>
       </c>
       <c r="F77">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H77" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O77" t="s">
         <v>127</v>
       </c>
       <c r="P77" t="s">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="Q77">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="R77">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S77">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="T77">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="U77">
+        <v>2.75</v>
+      </c>
+      <c r="V77">
+        <v>2.97</v>
+      </c>
+      <c r="W77">
+        <v>1.36</v>
+      </c>
+      <c r="X77">
+        <v>7.3</v>
+      </c>
+      <c r="Y77">
+        <v>1.07</v>
+      </c>
+      <c r="Z77">
+        <v>2.18</v>
+      </c>
+      <c r="AA77">
+        <v>3.3</v>
+      </c>
+      <c r="AB77">
+        <v>2.79</v>
+      </c>
+      <c r="AC77">
+        <v>1.02</v>
+      </c>
+      <c r="AD77">
+        <v>7.4</v>
+      </c>
+      <c r="AE77">
+        <v>1.33</v>
+      </c>
+      <c r="AF77">
         <v>3.1</v>
       </c>
-      <c r="V77">
-        <v>2.6</v>
-      </c>
-      <c r="W77">
-        <v>1.46</v>
-      </c>
-      <c r="X77">
-        <v>6.1</v>
-      </c>
-      <c r="Y77">
-        <v>1.1</v>
-      </c>
-      <c r="Z77">
-        <v>1.76</v>
-      </c>
-      <c r="AA77">
-        <v>3.45</v>
-      </c>
-      <c r="AB77">
-        <v>3.8</v>
-      </c>
-      <c r="AC77">
-        <v>1.01</v>
-      </c>
-      <c r="AD77">
-        <v>11</v>
-      </c>
-      <c r="AE77">
-        <v>1.2</v>
-      </c>
-      <c r="AF77">
+      <c r="AG77">
+        <v>2.01</v>
+      </c>
+      <c r="AH77">
+        <v>1.81</v>
+      </c>
+      <c r="AI77">
+        <v>1.78</v>
+      </c>
+      <c r="AJ77">
+        <v>1.95</v>
+      </c>
+      <c r="AK77">
+        <v>1.42</v>
+      </c>
+      <c r="AL77">
+        <v>1.25</v>
+      </c>
+      <c r="AM77">
+        <v>1.55</v>
+      </c>
+      <c r="AN77">
+        <v>0.29</v>
+      </c>
+      <c r="AO77">
+        <v>0.14</v>
+      </c>
+      <c r="AP77">
+        <v>0.63</v>
+      </c>
+      <c r="AQ77">
+        <v>0.13</v>
+      </c>
+      <c r="AR77">
+        <v>1.13</v>
+      </c>
+      <c r="AS77">
+        <v>1.33</v>
+      </c>
+      <c r="AT77">
+        <v>2.46</v>
+      </c>
+      <c r="AU77">
+        <v>6</v>
+      </c>
+      <c r="AV77">
         <v>4</v>
       </c>
-      <c r="AG77">
-        <v>1.8</v>
-      </c>
-      <c r="AH77">
-        <v>1.94</v>
-      </c>
-      <c r="AI77">
-        <v>1.67</v>
-      </c>
-      <c r="AJ77">
-        <v>2.1</v>
-      </c>
-      <c r="AK77">
-        <v>1.19</v>
-      </c>
-      <c r="AL77">
-        <v>1.22</v>
-      </c>
-      <c r="AM77">
-        <v>1.92</v>
-      </c>
-      <c r="AN77">
-        <v>2.14</v>
-      </c>
-      <c r="AO77">
-        <v>2.14</v>
-      </c>
-      <c r="AP77">
-        <v>2.25</v>
-      </c>
-      <c r="AQ77">
-        <v>1.88</v>
-      </c>
-      <c r="AR77">
-        <v>2</v>
-      </c>
-      <c r="AS77">
-        <v>1.31</v>
-      </c>
-      <c r="AT77">
-        <v>3.31</v>
-      </c>
-      <c r="AU77">
+      <c r="AW77">
         <v>8</v>
       </c>
-      <c r="AV77">
-        <v>2</v>
-      </c>
-      <c r="AW77">
+      <c r="AX77">
+        <v>8</v>
+      </c>
+      <c r="AY77">
+        <v>18</v>
+      </c>
+      <c r="AZ77">
+        <v>17</v>
+      </c>
+      <c r="BA77">
         <v>6</v>
       </c>
-      <c r="AX77">
-        <v>12</v>
-      </c>
-      <c r="AY77">
-        <v>19</v>
-      </c>
-      <c r="AZ77">
-        <v>19</v>
-      </c>
-      <c r="BA77">
-        <v>13</v>
-      </c>
       <c r="BB77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC77">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="BD77">
         <v>0</v>
@@ -16720,233 +16720,27 @@
         <v>0</v>
       </c>
       <c r="BI77">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="BJ77">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="BK77">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="BL77">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="BM77">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="BN77">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="BO77">
         <v>0</v>
       </c>
       <c r="BP77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:68">
-      <c r="A78" s="1">
-        <v>77</v>
-      </c>
-      <c r="B78">
-        <v>7483752</v>
-      </c>
-      <c r="C78" t="s">
-        <v>68</v>
-      </c>
-      <c r="D78" t="s">
-        <v>69</v>
-      </c>
-      <c r="E78" s="2">
-        <v>45619.5625</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78" t="s">
-        <v>76</v>
-      </c>
-      <c r="H78" t="s">
-        <v>75</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78">
-        <v>2</v>
-      </c>
-      <c r="M78">
-        <v>1</v>
-      </c>
-      <c r="N78">
-        <v>3</v>
-      </c>
-      <c r="O78" t="s">
-        <v>128</v>
-      </c>
-      <c r="P78" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q78">
-        <v>3</v>
-      </c>
-      <c r="R78">
-        <v>2.05</v>
-      </c>
-      <c r="S78">
-        <v>3.3</v>
-      </c>
-      <c r="T78">
-        <v>1.4</v>
-      </c>
-      <c r="U78">
-        <v>2.75</v>
-      </c>
-      <c r="V78">
-        <v>2.97</v>
-      </c>
-      <c r="W78">
-        <v>1.36</v>
-      </c>
-      <c r="X78">
-        <v>7.3</v>
-      </c>
-      <c r="Y78">
-        <v>1.07</v>
-      </c>
-      <c r="Z78">
-        <v>2.18</v>
-      </c>
-      <c r="AA78">
-        <v>3.3</v>
-      </c>
-      <c r="AB78">
-        <v>2.79</v>
-      </c>
-      <c r="AC78">
-        <v>1.02</v>
-      </c>
-      <c r="AD78">
-        <v>7.4</v>
-      </c>
-      <c r="AE78">
-        <v>1.33</v>
-      </c>
-      <c r="AF78">
-        <v>3.1</v>
-      </c>
-      <c r="AG78">
-        <v>2.01</v>
-      </c>
-      <c r="AH78">
-        <v>1.81</v>
-      </c>
-      <c r="AI78">
-        <v>1.78</v>
-      </c>
-      <c r="AJ78">
-        <v>1.95</v>
-      </c>
-      <c r="AK78">
-        <v>1.42</v>
-      </c>
-      <c r="AL78">
-        <v>1.25</v>
-      </c>
-      <c r="AM78">
-        <v>1.55</v>
-      </c>
-      <c r="AN78">
-        <v>0.29</v>
-      </c>
-      <c r="AO78">
-        <v>0.14</v>
-      </c>
-      <c r="AP78">
-        <v>0.63</v>
-      </c>
-      <c r="AQ78">
-        <v>0.13</v>
-      </c>
-      <c r="AR78">
-        <v>1.13</v>
-      </c>
-      <c r="AS78">
-        <v>1.33</v>
-      </c>
-      <c r="AT78">
-        <v>2.46</v>
-      </c>
-      <c r="AU78">
-        <v>6</v>
-      </c>
-      <c r="AV78">
-        <v>4</v>
-      </c>
-      <c r="AW78">
-        <v>8</v>
-      </c>
-      <c r="AX78">
-        <v>8</v>
-      </c>
-      <c r="AY78">
-        <v>18</v>
-      </c>
-      <c r="AZ78">
-        <v>17</v>
-      </c>
-      <c r="BA78">
-        <v>6</v>
-      </c>
-      <c r="BB78">
-        <v>2</v>
-      </c>
-      <c r="BC78">
-        <v>8</v>
-      </c>
-      <c r="BD78">
-        <v>0</v>
-      </c>
-      <c r="BE78">
-        <v>0</v>
-      </c>
-      <c r="BF78">
-        <v>0</v>
-      </c>
-      <c r="BG78">
-        <v>0</v>
-      </c>
-      <c r="BH78">
-        <v>0</v>
-      </c>
-      <c r="BI78">
-        <v>1.48</v>
-      </c>
-      <c r="BJ78">
-        <v>2.54</v>
-      </c>
-      <c r="BK78">
-        <v>1.81</v>
-      </c>
-      <c r="BL78">
-        <v>1.98</v>
-      </c>
-      <c r="BM78">
-        <v>2.27</v>
-      </c>
-      <c r="BN78">
-        <v>1.6</v>
-      </c>
-      <c r="BO78">
-        <v>0</v>
-      </c>
-      <c r="BP78">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="168">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -400,6 +400,12 @@
     <t>['56', '79']</t>
   </si>
   <si>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['38', '56']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -440,9 +446,6 @@
   </si>
   <si>
     <t>['2', '20']</t>
-  </si>
-  <si>
-    <t>['15']</t>
   </si>
   <si>
     <t>['53', '76']</t>
@@ -876,7 +879,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP77"/>
+  <dimension ref="A1:BP80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1341,7 +1344,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1422,7 +1425,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ3">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1625,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ4">
         <v>0.13</v>
@@ -1753,7 +1756,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -2037,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ6">
         <v>1.13</v>
@@ -2371,7 +2374,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2658,7 +2661,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ9">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3195,7 +3198,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3273,10 +3276,10 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ12">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3479,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ13">
         <v>1.38</v>
@@ -4019,7 +4022,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4306,7 +4309,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ17">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR17">
         <v>1.21</v>
@@ -4431,7 +4434,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4509,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ18">
         <v>0.86</v>
@@ -4637,7 +4640,7 @@
         <v>93</v>
       </c>
       <c r="P19" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q19">
         <v>1.83</v>
@@ -4924,7 +4927,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ20">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR20">
         <v>0.95</v>
@@ -5049,7 +5052,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5127,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ21">
         <v>0.5</v>
@@ -5255,7 +5258,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5333,7 +5336,7 @@
         <v>0.5</v>
       </c>
       <c r="AP22">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ22">
         <v>1.13</v>
@@ -5667,7 +5670,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -5748,7 +5751,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ24">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR24">
         <v>1.24</v>
@@ -5873,7 +5876,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6157,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ26">
         <v>0.86</v>
@@ -6285,7 +6288,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6366,7 +6369,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ27">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR27">
         <v>0.98</v>
@@ -6572,7 +6575,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ28">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR28">
         <v>1.74</v>
@@ -6697,7 +6700,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -6775,7 +6778,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ29">
         <v>1.25</v>
@@ -7109,7 +7112,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -7315,7 +7318,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8217,7 +8220,7 @@
         <v>1.2</v>
       </c>
       <c r="AP36">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ36">
         <v>1.25</v>
@@ -8345,7 +8348,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -8426,7 +8429,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ37">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR37">
         <v>1.39</v>
@@ -8757,7 +8760,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q39">
         <v>1.8</v>
@@ -8835,7 +8838,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ39">
         <v>0.13</v>
@@ -9044,7 +9047,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ40">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR40">
         <v>1.6</v>
@@ -9247,10 +9250,10 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ41">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR41">
         <v>2.19</v>
@@ -9375,7 +9378,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q42">
         <v>1.95</v>
@@ -9787,7 +9790,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9868,7 +9871,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ44">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR44">
         <v>1.49</v>
@@ -9993,7 +9996,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10199,7 +10202,7 @@
         <v>81</v>
       </c>
       <c r="P46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -10277,10 +10280,10 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ46">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR46">
         <v>1.05</v>
@@ -10611,7 +10614,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11023,7 +11026,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q50">
         <v>6.1</v>
@@ -11104,7 +11107,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ50">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR50">
         <v>1.16</v>
@@ -11435,7 +11438,7 @@
         <v>81</v>
       </c>
       <c r="P52" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q52">
         <v>2.31</v>
@@ -11513,7 +11516,7 @@
         <v>0.2</v>
       </c>
       <c r="AP52">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ52">
         <v>0.5</v>
@@ -11719,7 +11722,7 @@
         <v>1.2</v>
       </c>
       <c r="AP53">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ53">
         <v>1.13</v>
@@ -11847,7 +11850,7 @@
         <v>111</v>
       </c>
       <c r="P54" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12053,7 +12056,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q55">
         <v>2.1</v>
@@ -12134,7 +12137,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ55">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR55">
         <v>1.92</v>
@@ -12259,7 +12262,7 @@
         <v>81</v>
       </c>
       <c r="P56" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -12337,7 +12340,7 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ56">
         <v>0.86</v>
@@ -12465,7 +12468,7 @@
         <v>115</v>
       </c>
       <c r="P57" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q57">
         <v>1.95</v>
@@ -12543,7 +12546,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -12671,7 +12674,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12752,7 +12755,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ58">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR58">
         <v>1.46</v>
@@ -12877,7 +12880,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -13083,7 +13086,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q60">
         <v>3.6</v>
@@ -13164,7 +13167,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ60">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR60">
         <v>1.4</v>
@@ -13289,7 +13292,7 @@
         <v>89</v>
       </c>
       <c r="P61" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13495,7 +13498,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -13573,7 +13576,7 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ62">
         <v>0.13</v>
@@ -13701,7 +13704,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q63">
         <v>4.3</v>
@@ -13779,10 +13782,10 @@
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ63">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR63">
         <v>1.5</v>
@@ -13907,7 +13910,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14113,7 +14116,7 @@
         <v>120</v>
       </c>
       <c r="P65" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14937,7 +14940,7 @@
         <v>123</v>
       </c>
       <c r="P69" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15143,7 +15146,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q70">
         <v>3.2</v>
@@ -15221,10 +15224,10 @@
         <v>2.33</v>
       </c>
       <c r="AP70">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ70">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR70">
         <v>1.99</v>
@@ -15349,7 +15352,7 @@
         <v>114</v>
       </c>
       <c r="P71" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q71">
         <v>4.75</v>
@@ -15430,7 +15433,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ71">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR71">
         <v>1.47</v>
@@ -16048,7 +16051,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ74">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR74">
         <v>1.87</v>
@@ -16173,7 +16176,7 @@
         <v>125</v>
       </c>
       <c r="P75" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q75">
         <v>2.91</v>
@@ -16379,7 +16382,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -16457,7 +16460,7 @@
         <v>1.14</v>
       </c>
       <c r="AP76">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ76">
         <v>1.38</v>
@@ -16585,7 +16588,7 @@
         <v>127</v>
       </c>
       <c r="P77" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16741,6 +16744,624 @@
         <v>0</v>
       </c>
       <c r="BP77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7483751</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45619.45833333334</v>
+      </c>
+      <c r="F78">
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>74</v>
+      </c>
+      <c r="H78" t="s">
+        <v>77</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78" t="s">
+        <v>128</v>
+      </c>
+      <c r="P78" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q78">
+        <v>2.3</v>
+      </c>
+      <c r="R78">
+        <v>2.2</v>
+      </c>
+      <c r="S78">
+        <v>4.5</v>
+      </c>
+      <c r="T78">
+        <v>1.34</v>
+      </c>
+      <c r="U78">
+        <v>3.1</v>
+      </c>
+      <c r="V78">
+        <v>2.6</v>
+      </c>
+      <c r="W78">
+        <v>1.46</v>
+      </c>
+      <c r="X78">
+        <v>6.1</v>
+      </c>
+      <c r="Y78">
+        <v>1.1</v>
+      </c>
+      <c r="Z78">
+        <v>1.76</v>
+      </c>
+      <c r="AA78">
+        <v>3.45</v>
+      </c>
+      <c r="AB78">
+        <v>3.8</v>
+      </c>
+      <c r="AC78">
+        <v>1.01</v>
+      </c>
+      <c r="AD78">
+        <v>11</v>
+      </c>
+      <c r="AE78">
+        <v>1.2</v>
+      </c>
+      <c r="AF78">
+        <v>4</v>
+      </c>
+      <c r="AG78">
+        <v>1.8</v>
+      </c>
+      <c r="AH78">
+        <v>1.94</v>
+      </c>
+      <c r="AI78">
+        <v>1.67</v>
+      </c>
+      <c r="AJ78">
+        <v>2.1</v>
+      </c>
+      <c r="AK78">
+        <v>1.19</v>
+      </c>
+      <c r="AL78">
+        <v>1.22</v>
+      </c>
+      <c r="AM78">
+        <v>1.92</v>
+      </c>
+      <c r="AN78">
+        <v>2.14</v>
+      </c>
+      <c r="AO78">
+        <v>2.14</v>
+      </c>
+      <c r="AP78">
+        <v>2.25</v>
+      </c>
+      <c r="AQ78">
+        <v>1.88</v>
+      </c>
+      <c r="AR78">
+        <v>2</v>
+      </c>
+      <c r="AS78">
+        <v>1.31</v>
+      </c>
+      <c r="AT78">
+        <v>3.31</v>
+      </c>
+      <c r="AU78">
+        <v>6</v>
+      </c>
+      <c r="AV78">
+        <v>5</v>
+      </c>
+      <c r="AW78">
+        <v>6</v>
+      </c>
+      <c r="AX78">
+        <v>6</v>
+      </c>
+      <c r="AY78">
+        <v>12</v>
+      </c>
+      <c r="AZ78">
+        <v>11</v>
+      </c>
+      <c r="BA78">
+        <v>13</v>
+      </c>
+      <c r="BB78">
+        <v>3</v>
+      </c>
+      <c r="BC78">
+        <v>16</v>
+      </c>
+      <c r="BD78">
+        <v>0</v>
+      </c>
+      <c r="BE78">
+        <v>0</v>
+      </c>
+      <c r="BF78">
+        <v>0</v>
+      </c>
+      <c r="BG78">
+        <v>0</v>
+      </c>
+      <c r="BH78">
+        <v>0</v>
+      </c>
+      <c r="BI78">
+        <v>0</v>
+      </c>
+      <c r="BJ78">
+        <v>0</v>
+      </c>
+      <c r="BK78">
+        <v>0</v>
+      </c>
+      <c r="BL78">
+        <v>0</v>
+      </c>
+      <c r="BM78">
+        <v>0</v>
+      </c>
+      <c r="BN78">
+        <v>0</v>
+      </c>
+      <c r="BO78">
+        <v>0</v>
+      </c>
+      <c r="BP78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7483749</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45620.45833333334</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>72</v>
+      </c>
+      <c r="H79" t="s">
+        <v>70</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79" t="s">
+        <v>81</v>
+      </c>
+      <c r="P79" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q79">
+        <v>5</v>
+      </c>
+      <c r="R79">
+        <v>2.15</v>
+      </c>
+      <c r="S79">
+        <v>2.2</v>
+      </c>
+      <c r="T79">
+        <v>1.39</v>
+      </c>
+      <c r="U79">
+        <v>2.8</v>
+      </c>
+      <c r="V79">
+        <v>2.75</v>
+      </c>
+      <c r="W79">
+        <v>1.4</v>
+      </c>
+      <c r="X79">
+        <v>6.5</v>
+      </c>
+      <c r="Y79">
+        <v>1.1</v>
+      </c>
+      <c r="Z79">
+        <v>4.6</v>
+      </c>
+      <c r="AA79">
+        <v>3.6</v>
+      </c>
+      <c r="AB79">
+        <v>1.6</v>
+      </c>
+      <c r="AC79">
+        <v>1.05</v>
+      </c>
+      <c r="AD79">
+        <v>8.5</v>
+      </c>
+      <c r="AE79">
+        <v>1.28</v>
+      </c>
+      <c r="AF79">
+        <v>3.4</v>
+      </c>
+      <c r="AG79">
+        <v>1.91</v>
+      </c>
+      <c r="AH79">
+        <v>1.85</v>
+      </c>
+      <c r="AI79">
+        <v>1.87</v>
+      </c>
+      <c r="AJ79">
+        <v>1.87</v>
+      </c>
+      <c r="AK79">
+        <v>2.15</v>
+      </c>
+      <c r="AL79">
+        <v>1.2</v>
+      </c>
+      <c r="AM79">
+        <v>1.12</v>
+      </c>
+      <c r="AN79">
+        <v>1.86</v>
+      </c>
+      <c r="AO79">
+        <v>2.43</v>
+      </c>
+      <c r="AP79">
+        <v>1.63</v>
+      </c>
+      <c r="AQ79">
+        <v>2.5</v>
+      </c>
+      <c r="AR79">
+        <v>1.42</v>
+      </c>
+      <c r="AS79">
+        <v>1.61</v>
+      </c>
+      <c r="AT79">
+        <v>3.03</v>
+      </c>
+      <c r="AU79">
+        <v>2</v>
+      </c>
+      <c r="AV79">
+        <v>5</v>
+      </c>
+      <c r="AW79">
+        <v>3</v>
+      </c>
+      <c r="AX79">
+        <v>10</v>
+      </c>
+      <c r="AY79">
+        <v>5</v>
+      </c>
+      <c r="AZ79">
+        <v>15</v>
+      </c>
+      <c r="BA79">
+        <v>3</v>
+      </c>
+      <c r="BB79">
+        <v>5</v>
+      </c>
+      <c r="BC79">
+        <v>8</v>
+      </c>
+      <c r="BD79">
+        <v>0</v>
+      </c>
+      <c r="BE79">
+        <v>0</v>
+      </c>
+      <c r="BF79">
+        <v>0</v>
+      </c>
+      <c r="BG79">
+        <v>0</v>
+      </c>
+      <c r="BH79">
+        <v>0</v>
+      </c>
+      <c r="BI79">
+        <v>1.58</v>
+      </c>
+      <c r="BJ79">
+        <v>2.29</v>
+      </c>
+      <c r="BK79">
+        <v>1.94</v>
+      </c>
+      <c r="BL79">
+        <v>1.85</v>
+      </c>
+      <c r="BM79">
+        <v>2.4</v>
+      </c>
+      <c r="BN79">
+        <v>1.53</v>
+      </c>
+      <c r="BO79">
+        <v>0</v>
+      </c>
+      <c r="BP79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7483706</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45620.5625</v>
+      </c>
+      <c r="F80">
+        <v>16</v>
+      </c>
+      <c r="G80" t="s">
+        <v>79</v>
+      </c>
+      <c r="H80" t="s">
+        <v>73</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>2</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>2</v>
+      </c>
+      <c r="O80" t="s">
+        <v>129</v>
+      </c>
+      <c r="P80" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>5.99</v>
+      </c>
+      <c r="AA80">
+        <v>3.8</v>
+      </c>
+      <c r="AB80">
+        <v>1.36</v>
+      </c>
+      <c r="AC80">
+        <v>0</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>1.25</v>
+      </c>
+      <c r="AF80">
+        <v>3.3</v>
+      </c>
+      <c r="AG80">
+        <v>1.87</v>
+      </c>
+      <c r="AH80">
+        <v>1.93</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
+      </c>
+      <c r="AJ80">
+        <v>0</v>
+      </c>
+      <c r="AK80">
+        <v>0</v>
+      </c>
+      <c r="AL80">
+        <v>0</v>
+      </c>
+      <c r="AM80">
+        <v>0</v>
+      </c>
+      <c r="AN80">
+        <v>1</v>
+      </c>
+      <c r="AO80">
+        <v>1.71</v>
+      </c>
+      <c r="AP80">
+        <v>1.25</v>
+      </c>
+      <c r="AQ80">
+        <v>1.5</v>
+      </c>
+      <c r="AR80">
+        <v>1.04</v>
+      </c>
+      <c r="AS80">
+        <v>1.68</v>
+      </c>
+      <c r="AT80">
+        <v>2.72</v>
+      </c>
+      <c r="AU80">
+        <v>4</v>
+      </c>
+      <c r="AV80">
+        <v>7</v>
+      </c>
+      <c r="AW80">
+        <v>3</v>
+      </c>
+      <c r="AX80">
+        <v>5</v>
+      </c>
+      <c r="AY80">
+        <v>7</v>
+      </c>
+      <c r="AZ80">
+        <v>12</v>
+      </c>
+      <c r="BA80">
+        <v>3</v>
+      </c>
+      <c r="BB80">
+        <v>11</v>
+      </c>
+      <c r="BC80">
+        <v>14</v>
+      </c>
+      <c r="BD80">
+        <v>0</v>
+      </c>
+      <c r="BE80">
+        <v>0</v>
+      </c>
+      <c r="BF80">
+        <v>0</v>
+      </c>
+      <c r="BG80">
+        <v>0</v>
+      </c>
+      <c r="BH80">
+        <v>0</v>
+      </c>
+      <c r="BI80">
+        <v>0</v>
+      </c>
+      <c r="BJ80">
+        <v>0</v>
+      </c>
+      <c r="BK80">
+        <v>0</v>
+      </c>
+      <c r="BL80">
+        <v>0</v>
+      </c>
+      <c r="BM80">
+        <v>0</v>
+      </c>
+      <c r="BN80">
+        <v>0</v>
+      </c>
+      <c r="BO80">
+        <v>0</v>
+      </c>
+      <c r="BP80">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -17105,10 +17105,10 @@
         <v>10</v>
       </c>
       <c r="AY79">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ79">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BA79">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -397,10 +397,10 @@
     <t>['11']</t>
   </si>
   <si>
-    <t>['56', '79']</t>
+    <t>['15']</t>
   </si>
   <si>
-    <t>['15']</t>
+    <t>['56', '79']</t>
   </si>
   <si>
     <t>['38', '56']</t>
@@ -7318,7 +7318,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -16546,7 +16546,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>7483752</v>
+        <v>7483751</v>
       </c>
       <c r="C77" t="s">
         <v>68</v>
@@ -16555,157 +16555,157 @@
         <v>69</v>
       </c>
       <c r="E77" s="2">
-        <v>45618.875</v>
+        <v>45619.45833333334</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G77" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H77" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O77" t="s">
         <v>127</v>
       </c>
       <c r="P77" t="s">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="Q77">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="R77">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S77">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="T77">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="U77">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="V77">
-        <v>2.97</v>
+        <v>2.6</v>
       </c>
       <c r="W77">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="X77">
-        <v>7.3</v>
+        <v>6.1</v>
       </c>
       <c r="Y77">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="Z77">
-        <v>2.18</v>
+        <v>1.76</v>
       </c>
       <c r="AA77">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="AB77">
-        <v>2.79</v>
+        <v>3.8</v>
       </c>
       <c r="AC77">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD77">
-        <v>7.4</v>
+        <v>11</v>
       </c>
       <c r="AE77">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AF77">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="AG77">
-        <v>2.01</v>
+        <v>1.8</v>
       </c>
       <c r="AH77">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="AI77">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AJ77">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="AK77">
-        <v>1.42</v>
+        <v>1.19</v>
       </c>
       <c r="AL77">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM77">
-        <v>1.55</v>
+        <v>1.92</v>
       </c>
       <c r="AN77">
-        <v>0.29</v>
+        <v>2.14</v>
       </c>
       <c r="AO77">
-        <v>0.14</v>
+        <v>2.14</v>
       </c>
       <c r="AP77">
-        <v>0.63</v>
+        <v>2.25</v>
       </c>
       <c r="AQ77">
-        <v>0.13</v>
+        <v>1.88</v>
       </c>
       <c r="AR77">
-        <v>1.13</v>
+        <v>2</v>
       </c>
       <c r="AS77">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT77">
-        <v>2.46</v>
+        <v>3.31</v>
       </c>
       <c r="AU77">
         <v>6</v>
       </c>
       <c r="AV77">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW77">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX77">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AY77">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AZ77">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="BA77">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BB77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC77">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BD77">
         <v>0</v>
@@ -16723,22 +16723,22 @@
         <v>0</v>
       </c>
       <c r="BI77">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="BJ77">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="BK77">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="BL77">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="BM77">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="BN77">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="BO77">
         <v>0</v>
@@ -16752,7 +16752,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>7483751</v>
+        <v>7483752</v>
       </c>
       <c r="C78" t="s">
         <v>68</v>
@@ -16761,157 +16761,157 @@
         <v>69</v>
       </c>
       <c r="E78" s="2">
-        <v>45619.45833333334</v>
+        <v>45619.5625</v>
       </c>
       <c r="F78">
         <v>16</v>
       </c>
       <c r="G78" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H78" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O78" t="s">
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="Q78">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="R78">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S78">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="T78">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="U78">
+        <v>2.75</v>
+      </c>
+      <c r="V78">
+        <v>2.97</v>
+      </c>
+      <c r="W78">
+        <v>1.36</v>
+      </c>
+      <c r="X78">
+        <v>7.3</v>
+      </c>
+      <c r="Y78">
+        <v>1.07</v>
+      </c>
+      <c r="Z78">
+        <v>2.18</v>
+      </c>
+      <c r="AA78">
+        <v>3.3</v>
+      </c>
+      <c r="AB78">
+        <v>2.79</v>
+      </c>
+      <c r="AC78">
+        <v>1.02</v>
+      </c>
+      <c r="AD78">
+        <v>7.4</v>
+      </c>
+      <c r="AE78">
+        <v>1.33</v>
+      </c>
+      <c r="AF78">
         <v>3.1</v>
       </c>
-      <c r="V78">
-        <v>2.6</v>
-      </c>
-      <c r="W78">
-        <v>1.46</v>
-      </c>
-      <c r="X78">
-        <v>6.1</v>
-      </c>
-      <c r="Y78">
-        <v>1.1</v>
-      </c>
-      <c r="Z78">
-        <v>1.76</v>
-      </c>
-      <c r="AA78">
-        <v>3.45</v>
-      </c>
-      <c r="AB78">
-        <v>3.8</v>
-      </c>
-      <c r="AC78">
-        <v>1.01</v>
-      </c>
-      <c r="AD78">
-        <v>11</v>
-      </c>
-      <c r="AE78">
-        <v>1.2</v>
-      </c>
-      <c r="AF78">
-        <v>4</v>
-      </c>
       <c r="AG78">
-        <v>1.8</v>
+        <v>2.01</v>
       </c>
       <c r="AH78">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="AI78">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="AJ78">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AK78">
-        <v>1.19</v>
+        <v>1.42</v>
       </c>
       <c r="AL78">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM78">
-        <v>1.92</v>
+        <v>1.55</v>
       </c>
       <c r="AN78">
-        <v>2.14</v>
+        <v>0.29</v>
       </c>
       <c r="AO78">
-        <v>2.14</v>
+        <v>0.14</v>
       </c>
       <c r="AP78">
-        <v>2.25</v>
+        <v>0.63</v>
       </c>
       <c r="AQ78">
-        <v>1.88</v>
+        <v>0.13</v>
       </c>
       <c r="AR78">
-        <v>2</v>
+        <v>1.13</v>
       </c>
       <c r="AS78">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="AT78">
-        <v>3.31</v>
+        <v>2.46</v>
       </c>
       <c r="AU78">
         <v>6</v>
       </c>
       <c r="AV78">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW78">
+        <v>8</v>
+      </c>
+      <c r="AX78">
+        <v>8</v>
+      </c>
+      <c r="AY78">
+        <v>14</v>
+      </c>
+      <c r="AZ78">
+        <v>12</v>
+      </c>
+      <c r="BA78">
         <v>6</v>
       </c>
-      <c r="AX78">
-        <v>6</v>
-      </c>
-      <c r="AY78">
-        <v>12</v>
-      </c>
-      <c r="AZ78">
-        <v>11</v>
-      </c>
-      <c r="BA78">
-        <v>13</v>
-      </c>
       <c r="BB78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC78">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="BD78">
         <v>0</v>
@@ -16929,22 +16929,22 @@
         <v>0</v>
       </c>
       <c r="BI78">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="BJ78">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="BK78">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="BL78">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="BM78">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="BN78">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="BO78">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="172">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -406,7 +406,13 @@
     <t>['38', '56']</t>
   </si>
   <si>
+    <t>['60', '67']</t>
+  </si>
+  <si>
     <t>['75']</t>
+  </si>
+  <si>
+    <t>['40']</t>
   </si>
   <si>
     <t>['83']</t>
@@ -518,6 +524,12 @@
   </si>
   <si>
     <t>['67']</t>
+  </si>
+  <si>
+    <t>['3', '40', '45']</t>
+  </si>
+  <si>
+    <t>['36']</t>
   </si>
 </sst>
 </file>
@@ -879,7 +891,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP80"/>
+  <dimension ref="A1:BP83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1344,7 +1356,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1756,7 +1768,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -2043,7 +2055,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ6">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2374,7 +2386,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2452,10 +2464,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2658,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ9">
         <v>2.5</v>
@@ -3198,7 +3210,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3276,7 +3288,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ12">
         <v>1.88</v>
@@ -3691,7 +3703,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ14">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR14">
         <v>1.88</v>
@@ -4022,7 +4034,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4306,7 +4318,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ17">
         <v>2.5</v>
@@ -4434,7 +4446,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4640,7 +4652,7 @@
         <v>93</v>
       </c>
       <c r="P19" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q19">
         <v>1.83</v>
@@ -4721,7 +4733,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR19">
         <v>1.75</v>
@@ -5052,7 +5064,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5130,7 +5142,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ21">
         <v>0.5</v>
@@ -5258,7 +5270,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5339,7 +5351,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ22">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR22">
         <v>1.24</v>
@@ -5542,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ23">
         <v>0.13</v>
@@ -5670,7 +5682,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -5751,7 +5763,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR24">
         <v>1.24</v>
@@ -5876,7 +5888,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6288,7 +6300,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6366,7 +6378,7 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ27">
         <v>1.88</v>
@@ -6700,7 +6712,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -7112,7 +7124,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -7399,7 +7411,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ32">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR32">
         <v>1.34</v>
@@ -7811,7 +7823,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR34">
         <v>2.01</v>
@@ -8014,7 +8026,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ35">
         <v>1.38</v>
@@ -8348,7 +8360,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -8760,7 +8772,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q39">
         <v>1.8</v>
@@ -9253,7 +9265,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ41">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR41">
         <v>2.19</v>
@@ -9378,7 +9390,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q42">
         <v>1.95</v>
@@ -9459,7 +9471,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ42">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR42">
         <v>2.18</v>
@@ -9662,10 +9674,10 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ43">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR43">
         <v>1.26</v>
@@ -9790,7 +9802,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9871,7 +9883,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ44">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR44">
         <v>1.49</v>
@@ -9996,7 +10008,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10074,7 +10086,7 @@
         <v>0.67</v>
       </c>
       <c r="AP45">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ45">
         <v>1.38</v>
@@ -10202,7 +10214,7 @@
         <v>81</v>
       </c>
       <c r="P46" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -10280,7 +10292,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ46">
         <v>2.5</v>
@@ -10489,7 +10501,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR47">
         <v>1.5</v>
@@ -10614,7 +10626,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10898,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ49">
         <v>0.86</v>
@@ -11026,7 +11038,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q50">
         <v>6.1</v>
@@ -11104,10 +11116,10 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ50">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR50">
         <v>1.16</v>
@@ -11438,7 +11450,7 @@
         <v>81</v>
       </c>
       <c r="P52" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q52">
         <v>2.31</v>
@@ -11722,10 +11734,10 @@
         <v>1.2</v>
       </c>
       <c r="AP53">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ53">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR53">
         <v>1.07</v>
@@ -11850,7 +11862,7 @@
         <v>111</v>
       </c>
       <c r="P54" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12056,7 +12068,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q55">
         <v>2.1</v>
@@ -12262,7 +12274,7 @@
         <v>81</v>
       </c>
       <c r="P56" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -12340,7 +12352,7 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ56">
         <v>0.86</v>
@@ -12468,7 +12480,7 @@
         <v>115</v>
       </c>
       <c r="P57" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q57">
         <v>1.95</v>
@@ -12549,7 +12561,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR57">
         <v>2.09</v>
@@ -12674,7 +12686,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12880,7 +12892,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -12958,7 +12970,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ59">
         <v>1.25</v>
@@ -13086,7 +13098,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q60">
         <v>3.6</v>
@@ -13167,7 +13179,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ60">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR60">
         <v>1.4</v>
@@ -13292,7 +13304,7 @@
         <v>89</v>
       </c>
       <c r="P61" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13370,7 +13382,7 @@
         <v>0.6</v>
       </c>
       <c r="AP61">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ61">
         <v>0.86</v>
@@ -13498,7 +13510,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -13576,7 +13588,7 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ62">
         <v>0.13</v>
@@ -13704,7 +13716,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q63">
         <v>4.3</v>
@@ -13785,7 +13797,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ63">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR63">
         <v>1.5</v>
@@ -13910,7 +13922,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13988,10 +14000,10 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ64">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR64">
         <v>1.37</v>
@@ -14116,7 +14128,7 @@
         <v>120</v>
       </c>
       <c r="P65" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14606,7 +14618,7 @@
         <v>1.29</v>
       </c>
       <c r="AP67">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ67">
         <v>1.25</v>
@@ -14940,7 +14952,7 @@
         <v>123</v>
       </c>
       <c r="P69" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15021,7 +15033,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR69">
         <v>1.38</v>
@@ -15146,7 +15158,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q70">
         <v>3.2</v>
@@ -15352,7 +15364,7 @@
         <v>114</v>
       </c>
       <c r="P71" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q71">
         <v>4.75</v>
@@ -15636,7 +15648,7 @@
         <v>0.57</v>
       </c>
       <c r="AP72">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ72">
         <v>0.5</v>
@@ -15845,7 +15857,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ73">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR73">
         <v>1.53</v>
@@ -16051,7 +16063,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ74">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR74">
         <v>1.87</v>
@@ -16176,7 +16188,7 @@
         <v>125</v>
       </c>
       <c r="P75" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q75">
         <v>2.91</v>
@@ -16257,7 +16269,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ75">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR75">
         <v>1.44</v>
@@ -16382,7 +16394,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -16460,7 +16472,7 @@
         <v>1.14</v>
       </c>
       <c r="AP76">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ76">
         <v>1.38</v>
@@ -16794,7 +16806,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16872,7 +16884,7 @@
         <v>0.14</v>
       </c>
       <c r="AP78">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ78">
         <v>0.13</v>
@@ -17000,7 +17012,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -17284,10 +17296,10 @@
         <v>1.71</v>
       </c>
       <c r="AP80">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ80">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR80">
         <v>1.04</v>
@@ -17362,6 +17374,624 @@
         <v>0</v>
       </c>
       <c r="BP80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7483753</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45625.5625</v>
+      </c>
+      <c r="F81">
+        <v>17</v>
+      </c>
+      <c r="G81" t="s">
+        <v>76</v>
+      </c>
+      <c r="H81" t="s">
+        <v>78</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>3</v>
+      </c>
+      <c r="K81">
+        <v>3</v>
+      </c>
+      <c r="L81">
+        <v>2</v>
+      </c>
+      <c r="M81">
+        <v>3</v>
+      </c>
+      <c r="N81">
+        <v>5</v>
+      </c>
+      <c r="O81" t="s">
+        <v>130</v>
+      </c>
+      <c r="P81" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q81">
+        <v>4.5</v>
+      </c>
+      <c r="R81">
+        <v>2.05</v>
+      </c>
+      <c r="S81">
+        <v>2.5</v>
+      </c>
+      <c r="T81">
+        <v>1.44</v>
+      </c>
+      <c r="U81">
+        <v>2.63</v>
+      </c>
+      <c r="V81">
+        <v>3.25</v>
+      </c>
+      <c r="W81">
+        <v>1.33</v>
+      </c>
+      <c r="X81">
+        <v>7.5</v>
+      </c>
+      <c r="Y81">
+        <v>1.07</v>
+      </c>
+      <c r="Z81">
+        <v>3.7</v>
+      </c>
+      <c r="AA81">
+        <v>3.2</v>
+      </c>
+      <c r="AB81">
+        <v>1.85</v>
+      </c>
+      <c r="AC81">
+        <v>1.06</v>
+      </c>
+      <c r="AD81">
+        <v>8</v>
+      </c>
+      <c r="AE81">
+        <v>1.35</v>
+      </c>
+      <c r="AF81">
+        <v>3</v>
+      </c>
+      <c r="AG81">
+        <v>2</v>
+      </c>
+      <c r="AH81">
+        <v>1.7</v>
+      </c>
+      <c r="AI81">
+        <v>2</v>
+      </c>
+      <c r="AJ81">
+        <v>1.73</v>
+      </c>
+      <c r="AK81">
+        <v>1.73</v>
+      </c>
+      <c r="AL81">
+        <v>1.24</v>
+      </c>
+      <c r="AM81">
+        <v>1.19</v>
+      </c>
+      <c r="AN81">
+        <v>0.63</v>
+      </c>
+      <c r="AO81">
+        <v>1.13</v>
+      </c>
+      <c r="AP81">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AQ81">
+        <v>1.33</v>
+      </c>
+      <c r="AR81">
+        <v>1.21</v>
+      </c>
+      <c r="AS81">
+        <v>1.54</v>
+      </c>
+      <c r="AT81">
+        <v>2.75</v>
+      </c>
+      <c r="AU81">
+        <v>11</v>
+      </c>
+      <c r="AV81">
+        <v>6</v>
+      </c>
+      <c r="AW81">
+        <v>5</v>
+      </c>
+      <c r="AX81">
+        <v>6</v>
+      </c>
+      <c r="AY81">
+        <v>21</v>
+      </c>
+      <c r="AZ81">
+        <v>15</v>
+      </c>
+      <c r="BA81">
+        <v>4</v>
+      </c>
+      <c r="BB81">
+        <v>5</v>
+      </c>
+      <c r="BC81">
+        <v>9</v>
+      </c>
+      <c r="BD81">
+        <v>0</v>
+      </c>
+      <c r="BE81">
+        <v>0</v>
+      </c>
+      <c r="BF81">
+        <v>0</v>
+      </c>
+      <c r="BG81">
+        <v>0</v>
+      </c>
+      <c r="BH81">
+        <v>0</v>
+      </c>
+      <c r="BI81">
+        <v>0</v>
+      </c>
+      <c r="BJ81">
+        <v>0</v>
+      </c>
+      <c r="BK81">
+        <v>0</v>
+      </c>
+      <c r="BL81">
+        <v>0</v>
+      </c>
+      <c r="BM81">
+        <v>0</v>
+      </c>
+      <c r="BN81">
+        <v>0</v>
+      </c>
+      <c r="BO81">
+        <v>0</v>
+      </c>
+      <c r="BP81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7483755</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45626.45833333334</v>
+      </c>
+      <c r="F82">
+        <v>17</v>
+      </c>
+      <c r="G82" t="s">
+        <v>77</v>
+      </c>
+      <c r="H82" t="s">
+        <v>73</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>2</v>
+      </c>
+      <c r="O82" t="s">
+        <v>131</v>
+      </c>
+      <c r="P82" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q82">
+        <v>3.5</v>
+      </c>
+      <c r="R82">
+        <v>2.1</v>
+      </c>
+      <c r="S82">
+        <v>2.88</v>
+      </c>
+      <c r="T82">
+        <v>1.4</v>
+      </c>
+      <c r="U82">
+        <v>2.75</v>
+      </c>
+      <c r="V82">
+        <v>3</v>
+      </c>
+      <c r="W82">
+        <v>1.36</v>
+      </c>
+      <c r="X82">
+        <v>7</v>
+      </c>
+      <c r="Y82">
+        <v>1.08</v>
+      </c>
+      <c r="Z82">
+        <v>2.87</v>
+      </c>
+      <c r="AA82">
+        <v>3.25</v>
+      </c>
+      <c r="AB82">
+        <v>2.15</v>
+      </c>
+      <c r="AC82">
+        <v>1.05</v>
+      </c>
+      <c r="AD82">
+        <v>8.5</v>
+      </c>
+      <c r="AE82">
+        <v>1.27</v>
+      </c>
+      <c r="AF82">
+        <v>3.4</v>
+      </c>
+      <c r="AG82">
+        <v>1.85</v>
+      </c>
+      <c r="AH82">
+        <v>1.8</v>
+      </c>
+      <c r="AI82">
+        <v>1.73</v>
+      </c>
+      <c r="AJ82">
+        <v>2</v>
+      </c>
+      <c r="AK82">
+        <v>1.51</v>
+      </c>
+      <c r="AL82">
+        <v>1.26</v>
+      </c>
+      <c r="AM82">
+        <v>1.31</v>
+      </c>
+      <c r="AN82">
+        <v>1.75</v>
+      </c>
+      <c r="AO82">
+        <v>1.5</v>
+      </c>
+      <c r="AP82">
+        <v>1.67</v>
+      </c>
+      <c r="AQ82">
+        <v>1.44</v>
+      </c>
+      <c r="AR82">
+        <v>1.46</v>
+      </c>
+      <c r="AS82">
+        <v>1.7</v>
+      </c>
+      <c r="AT82">
+        <v>3.16</v>
+      </c>
+      <c r="AU82">
+        <v>3</v>
+      </c>
+      <c r="AV82">
+        <v>3</v>
+      </c>
+      <c r="AW82">
+        <v>4</v>
+      </c>
+      <c r="AX82">
+        <v>5</v>
+      </c>
+      <c r="AY82">
+        <v>7</v>
+      </c>
+      <c r="AZ82">
+        <v>9</v>
+      </c>
+      <c r="BA82">
+        <v>4</v>
+      </c>
+      <c r="BB82">
+        <v>3</v>
+      </c>
+      <c r="BC82">
+        <v>7</v>
+      </c>
+      <c r="BD82">
+        <v>0</v>
+      </c>
+      <c r="BE82">
+        <v>0</v>
+      </c>
+      <c r="BF82">
+        <v>0</v>
+      </c>
+      <c r="BG82">
+        <v>0</v>
+      </c>
+      <c r="BH82">
+        <v>0</v>
+      </c>
+      <c r="BI82">
+        <v>0</v>
+      </c>
+      <c r="BJ82">
+        <v>0</v>
+      </c>
+      <c r="BK82">
+        <v>0</v>
+      </c>
+      <c r="BL82">
+        <v>0</v>
+      </c>
+      <c r="BM82">
+        <v>0</v>
+      </c>
+      <c r="BN82">
+        <v>0</v>
+      </c>
+      <c r="BO82">
+        <v>0</v>
+      </c>
+      <c r="BP82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7483756</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45626.5625</v>
+      </c>
+      <c r="F83">
+        <v>17</v>
+      </c>
+      <c r="G83" t="s">
+        <v>79</v>
+      </c>
+      <c r="H83" t="s">
+        <v>72</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83" t="s">
+        <v>132</v>
+      </c>
+      <c r="P83" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>2.62</v>
+      </c>
+      <c r="AA83">
+        <v>2.96</v>
+      </c>
+      <c r="AB83">
+        <v>2.22</v>
+      </c>
+      <c r="AC83">
+        <v>0</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
+      </c>
+      <c r="AF83">
+        <v>0</v>
+      </c>
+      <c r="AG83">
+        <v>1.98</v>
+      </c>
+      <c r="AH83">
+        <v>1.82</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
+      </c>
+      <c r="AJ83">
+        <v>0</v>
+      </c>
+      <c r="AK83">
+        <v>0</v>
+      </c>
+      <c r="AL83">
+        <v>0</v>
+      </c>
+      <c r="AM83">
+        <v>0</v>
+      </c>
+      <c r="AN83">
+        <v>1.25</v>
+      </c>
+      <c r="AO83">
+        <v>1</v>
+      </c>
+      <c r="AP83">
+        <v>1.44</v>
+      </c>
+      <c r="AQ83">
+        <v>0.89</v>
+      </c>
+      <c r="AR83">
+        <v>1.05</v>
+      </c>
+      <c r="AS83">
+        <v>1.4</v>
+      </c>
+      <c r="AT83">
+        <v>2.45</v>
+      </c>
+      <c r="AU83">
+        <v>-1</v>
+      </c>
+      <c r="AV83">
+        <v>-1</v>
+      </c>
+      <c r="AW83">
+        <v>-1</v>
+      </c>
+      <c r="AX83">
+        <v>-1</v>
+      </c>
+      <c r="AY83">
+        <v>-1</v>
+      </c>
+      <c r="AZ83">
+        <v>-1</v>
+      </c>
+      <c r="BA83">
+        <v>-1</v>
+      </c>
+      <c r="BB83">
+        <v>-1</v>
+      </c>
+      <c r="BC83">
+        <v>-1</v>
+      </c>
+      <c r="BD83">
+        <v>0</v>
+      </c>
+      <c r="BE83">
+        <v>0</v>
+      </c>
+      <c r="BF83">
+        <v>0</v>
+      </c>
+      <c r="BG83">
+        <v>0</v>
+      </c>
+      <c r="BH83">
+        <v>0</v>
+      </c>
+      <c r="BI83">
+        <v>0</v>
+      </c>
+      <c r="BJ83">
+        <v>0</v>
+      </c>
+      <c r="BK83">
+        <v>0</v>
+      </c>
+      <c r="BL83">
+        <v>0</v>
+      </c>
+      <c r="BM83">
+        <v>0</v>
+      </c>
+      <c r="BN83">
+        <v>0</v>
+      </c>
+      <c r="BO83">
+        <v>0</v>
+      </c>
+      <c r="BP83">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="173">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -413,6 +413,9 @@
   </si>
   <si>
     <t>['40']</t>
+  </si>
+  <si>
+    <t>['37', '82']</t>
   </si>
   <si>
     <t>['83']</t>
@@ -891,7 +894,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP83"/>
+  <dimension ref="A1:BP85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1228,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
         <v>1.25</v>
@@ -1768,7 +1771,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -2258,10 +2261,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ7">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2386,7 +2389,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -3210,7 +3213,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3497,7 +3500,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ13">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR13">
         <v>1.72</v>
@@ -3906,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
         <v>0.13</v>
@@ -4034,7 +4037,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4112,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ16">
         <v>1.25</v>
@@ -4446,7 +4449,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4527,7 +4530,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ18">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR18">
         <v>2.23</v>
@@ -4652,7 +4655,7 @@
         <v>93</v>
       </c>
       <c r="P19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q19">
         <v>1.83</v>
@@ -5064,7 +5067,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5270,7 +5273,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5682,7 +5685,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -5888,7 +5891,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -5966,10 +5969,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR25">
         <v>1.83</v>
@@ -6175,7 +6178,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ26">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR26">
         <v>1.62</v>
@@ -6300,7 +6303,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6712,7 +6715,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -7124,7 +7127,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -7202,7 +7205,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ31">
         <v>0.5</v>
@@ -7820,7 +7823,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
         <v>0.89</v>
@@ -8029,7 +8032,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ35">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR35">
         <v>1.21</v>
@@ -8360,7 +8363,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -8772,7 +8775,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q39">
         <v>1.8</v>
@@ -9390,7 +9393,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q42">
         <v>1.95</v>
@@ -9468,7 +9471,7 @@
         <v>1.25</v>
       </c>
       <c r="AP42">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
         <v>1.33</v>
@@ -9802,7 +9805,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9880,7 +9883,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ44">
         <v>1.44</v>
@@ -10008,7 +10011,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10089,7 +10092,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ45">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR45">
         <v>1.07</v>
@@ -10214,7 +10217,7 @@
         <v>81</v>
       </c>
       <c r="P46" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -10498,7 +10501,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ47">
         <v>0.89</v>
@@ -10626,7 +10629,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10707,7 +10710,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ48">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR48">
         <v>1.28</v>
@@ -10913,7 +10916,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ49">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR49">
         <v>1.31</v>
@@ -11038,7 +11041,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q50">
         <v>6.1</v>
@@ -11450,7 +11453,7 @@
         <v>81</v>
       </c>
       <c r="P52" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q52">
         <v>2.31</v>
@@ -11862,7 +11865,7 @@
         <v>111</v>
       </c>
       <c r="P54" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -11943,7 +11946,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ54">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR54">
         <v>1.59</v>
@@ -12068,7 +12071,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q55">
         <v>2.1</v>
@@ -12146,7 +12149,7 @@
         <v>1.8</v>
       </c>
       <c r="AP55">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ55">
         <v>1.88</v>
@@ -12274,7 +12277,7 @@
         <v>81</v>
       </c>
       <c r="P56" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -12355,7 +12358,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ56">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR56">
         <v>1.1</v>
@@ -12480,7 +12483,7 @@
         <v>115</v>
       </c>
       <c r="P57" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q57">
         <v>1.95</v>
@@ -12686,7 +12689,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12764,7 +12767,7 @@
         <v>2.2</v>
       </c>
       <c r="AP58">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ58">
         <v>2.5</v>
@@ -12892,7 +12895,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -13098,7 +13101,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q60">
         <v>3.6</v>
@@ -13304,7 +13307,7 @@
         <v>89</v>
       </c>
       <c r="P61" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13385,7 +13388,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ61">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR61">
         <v>1.2</v>
@@ -13510,7 +13513,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -13716,7 +13719,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q63">
         <v>4.3</v>
@@ -13922,7 +13925,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14128,7 +14131,7 @@
         <v>120</v>
       </c>
       <c r="P65" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14209,7 +14212,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ65">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR65">
         <v>1.42</v>
@@ -14412,7 +14415,7 @@
         <v>0.67</v>
       </c>
       <c r="AP66">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ66">
         <v>0.5</v>
@@ -14827,7 +14830,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ68">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR68">
         <v>1.5</v>
@@ -14952,7 +14955,7 @@
         <v>123</v>
       </c>
       <c r="P69" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15158,7 +15161,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q70">
         <v>3.2</v>
@@ -15364,7 +15367,7 @@
         <v>114</v>
       </c>
       <c r="P71" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q71">
         <v>4.75</v>
@@ -15442,7 +15445,7 @@
         <v>2</v>
       </c>
       <c r="AP71">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ71">
         <v>1.88</v>
@@ -15854,7 +15857,7 @@
         <v>0.86</v>
       </c>
       <c r="AP73">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ73">
         <v>1.33</v>
@@ -16060,7 +16063,7 @@
         <v>1.83</v>
       </c>
       <c r="AP74">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ74">
         <v>1.44</v>
@@ -16188,7 +16191,7 @@
         <v>125</v>
       </c>
       <c r="P75" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q75">
         <v>2.91</v>
@@ -16394,7 +16397,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -16475,7 +16478,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ76">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR76">
         <v>1.07</v>
@@ -16806,7 +16809,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -17012,7 +17015,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -17424,7 +17427,7 @@
         <v>130</v>
       </c>
       <c r="P81" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17630,7 +17633,7 @@
         <v>131</v>
       </c>
       <c r="P82" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q82">
         <v>3.5</v>
@@ -17929,31 +17932,31 @@
         <v>2.45</v>
       </c>
       <c r="AU83">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV83">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AW83">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX83">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY83">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ83">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BA83">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB83">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC83">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD83">
         <v>0</v>
@@ -17993,6 +17996,418 @@
       </c>
       <c r="BP83">
         <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7483754</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45627.45833333334</v>
+      </c>
+      <c r="F84">
+        <v>17</v>
+      </c>
+      <c r="G84" t="s">
+        <v>75</v>
+      </c>
+      <c r="H84" t="s">
+        <v>74</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84" t="s">
+        <v>81</v>
+      </c>
+      <c r="P84" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q84">
+        <v>6</v>
+      </c>
+      <c r="R84">
+        <v>2.3</v>
+      </c>
+      <c r="S84">
+        <v>1.95</v>
+      </c>
+      <c r="T84">
+        <v>1.33</v>
+      </c>
+      <c r="U84">
+        <v>3.25</v>
+      </c>
+      <c r="V84">
+        <v>2.5</v>
+      </c>
+      <c r="W84">
+        <v>1.5</v>
+      </c>
+      <c r="X84">
+        <v>6</v>
+      </c>
+      <c r="Y84">
+        <v>1.11</v>
+      </c>
+      <c r="Z84">
+        <v>5.83</v>
+      </c>
+      <c r="AA84">
+        <v>4.33</v>
+      </c>
+      <c r="AB84">
+        <v>1.46</v>
+      </c>
+      <c r="AC84">
+        <v>1.01</v>
+      </c>
+      <c r="AD84">
+        <v>11</v>
+      </c>
+      <c r="AE84">
+        <v>1.23</v>
+      </c>
+      <c r="AF84">
+        <v>3.9</v>
+      </c>
+      <c r="AG84">
+        <v>1.84</v>
+      </c>
+      <c r="AH84">
+        <v>1.86</v>
+      </c>
+      <c r="AI84">
+        <v>1.83</v>
+      </c>
+      <c r="AJ84">
+        <v>1.83</v>
+      </c>
+      <c r="AK84">
+        <v>2.21</v>
+      </c>
+      <c r="AL84">
+        <v>1.16</v>
+      </c>
+      <c r="AM84">
+        <v>1.1</v>
+      </c>
+      <c r="AN84">
+        <v>0.88</v>
+      </c>
+      <c r="AO84">
+        <v>1.38</v>
+      </c>
+      <c r="AP84">
+        <v>0.89</v>
+      </c>
+      <c r="AQ84">
+        <v>1.33</v>
+      </c>
+      <c r="AR84">
+        <v>1.41</v>
+      </c>
+      <c r="AS84">
+        <v>1.65</v>
+      </c>
+      <c r="AT84">
+        <v>3.06</v>
+      </c>
+      <c r="AU84">
+        <v>7</v>
+      </c>
+      <c r="AV84">
+        <v>5</v>
+      </c>
+      <c r="AW84">
+        <v>6</v>
+      </c>
+      <c r="AX84">
+        <v>5</v>
+      </c>
+      <c r="AY84">
+        <v>18</v>
+      </c>
+      <c r="AZ84">
+        <v>11</v>
+      </c>
+      <c r="BA84">
+        <v>2</v>
+      </c>
+      <c r="BB84">
+        <v>2</v>
+      </c>
+      <c r="BC84">
+        <v>4</v>
+      </c>
+      <c r="BD84">
+        <v>5.25</v>
+      </c>
+      <c r="BE84">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF84">
+        <v>1.24</v>
+      </c>
+      <c r="BG84">
+        <v>1.19</v>
+      </c>
+      <c r="BH84">
+        <v>3.64</v>
+      </c>
+      <c r="BI84">
+        <v>1.38</v>
+      </c>
+      <c r="BJ84">
+        <v>2.54</v>
+      </c>
+      <c r="BK84">
+        <v>1.71</v>
+      </c>
+      <c r="BL84">
+        <v>1.97</v>
+      </c>
+      <c r="BM84">
+        <v>2.12</v>
+      </c>
+      <c r="BN84">
+        <v>1.55</v>
+      </c>
+      <c r="BO84">
+        <v>2.82</v>
+      </c>
+      <c r="BP84">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7483757</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45627.5625</v>
+      </c>
+      <c r="F85">
+        <v>17</v>
+      </c>
+      <c r="G85" t="s">
+        <v>70</v>
+      </c>
+      <c r="H85" t="s">
+        <v>71</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>2</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>2</v>
+      </c>
+      <c r="O85" t="s">
+        <v>133</v>
+      </c>
+      <c r="P85" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q85">
+        <v>1.91</v>
+      </c>
+      <c r="R85">
+        <v>2.3</v>
+      </c>
+      <c r="S85">
+        <v>7</v>
+      </c>
+      <c r="T85">
+        <v>1.36</v>
+      </c>
+      <c r="U85">
+        <v>3</v>
+      </c>
+      <c r="V85">
+        <v>2.75</v>
+      </c>
+      <c r="W85">
+        <v>1.4</v>
+      </c>
+      <c r="X85">
+        <v>6.5</v>
+      </c>
+      <c r="Y85">
+        <v>1.1</v>
+      </c>
+      <c r="Z85">
+        <v>1.33</v>
+      </c>
+      <c r="AA85">
+        <v>3.96</v>
+      </c>
+      <c r="AB85">
+        <v>6.38</v>
+      </c>
+      <c r="AC85">
+        <v>1.01</v>
+      </c>
+      <c r="AD85">
+        <v>11</v>
+      </c>
+      <c r="AE85">
+        <v>1.25</v>
+      </c>
+      <c r="AF85">
+        <v>3.75</v>
+      </c>
+      <c r="AG85">
+        <v>1.81</v>
+      </c>
+      <c r="AH85">
+        <v>1.95</v>
+      </c>
+      <c r="AI85">
+        <v>2.2</v>
+      </c>
+      <c r="AJ85">
+        <v>1.62</v>
+      </c>
+      <c r="AK85">
+        <v>1.08</v>
+      </c>
+      <c r="AL85">
+        <v>1.14</v>
+      </c>
+      <c r="AM85">
+        <v>2.4</v>
+      </c>
+      <c r="AN85">
+        <v>1.88</v>
+      </c>
+      <c r="AO85">
+        <v>0.86</v>
+      </c>
+      <c r="AP85">
+        <v>2</v>
+      </c>
+      <c r="AQ85">
+        <v>0.75</v>
+      </c>
+      <c r="AR85">
+        <v>1.72</v>
+      </c>
+      <c r="AS85">
+        <v>1.3</v>
+      </c>
+      <c r="AT85">
+        <v>3.02</v>
+      </c>
+      <c r="AU85">
+        <v>8</v>
+      </c>
+      <c r="AV85">
+        <v>3</v>
+      </c>
+      <c r="AW85">
+        <v>10</v>
+      </c>
+      <c r="AX85">
+        <v>6</v>
+      </c>
+      <c r="AY85">
+        <v>18</v>
+      </c>
+      <c r="AZ85">
+        <v>9</v>
+      </c>
+      <c r="BA85">
+        <v>13</v>
+      </c>
+      <c r="BB85">
+        <v>2</v>
+      </c>
+      <c r="BC85">
+        <v>15</v>
+      </c>
+      <c r="BD85">
+        <v>1.12</v>
+      </c>
+      <c r="BE85">
+        <v>10</v>
+      </c>
+      <c r="BF85">
+        <v>7.8</v>
+      </c>
+      <c r="BG85">
+        <v>1.25</v>
+      </c>
+      <c r="BH85">
+        <v>3.14</v>
+      </c>
+      <c r="BI85">
+        <v>1.49</v>
+      </c>
+      <c r="BJ85">
+        <v>2.24</v>
+      </c>
+      <c r="BK85">
+        <v>1.88</v>
+      </c>
+      <c r="BL85">
+        <v>1.78</v>
+      </c>
+      <c r="BM85">
+        <v>2.42</v>
+      </c>
+      <c r="BN85">
+        <v>1.42</v>
+      </c>
+      <c r="BO85">
+        <v>3.28</v>
+      </c>
+      <c r="BP85">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -17726,22 +17726,22 @@
         <v>3.16</v>
       </c>
       <c r="AU82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV82">
         <v>3</v>
       </c>
       <c r="AW82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX82">
         <v>5</v>
       </c>
       <c r="AY82">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ82">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA82">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -18153,7 +18153,7 @@
         <v>18</v>
       </c>
       <c r="AZ84">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA84">
         <v>2</v>
@@ -18344,7 +18344,7 @@
         <v>3.02</v>
       </c>
       <c r="AU85">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV85">
         <v>3</v>
@@ -18356,10 +18356,10 @@
         <v>6</v>
       </c>
       <c r="AY85">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AZ85">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA85">
         <v>13</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="173">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -894,7 +894,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP85"/>
+  <dimension ref="A1:BP86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2264,7 +2264,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ7">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ10">
         <v>1.25</v>
@@ -4530,7 +4530,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ18">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR18">
         <v>2.23</v>
@@ -4939,7 +4939,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ20">
         <v>1.88</v>
@@ -6178,7 +6178,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ26">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR26">
         <v>1.62</v>
@@ -6999,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ30">
         <v>0.13</v>
@@ -8647,7 +8647,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ38">
         <v>0.5</v>
@@ -10707,7 +10707,7 @@
         <v>1.25</v>
       </c>
       <c r="AP48">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ48">
         <v>1.33</v>
@@ -10916,7 +10916,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ49">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR49">
         <v>1.31</v>
@@ -12358,7 +12358,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ56">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR56">
         <v>1.1</v>
@@ -13179,7 +13179,7 @@
         <v>1.75</v>
       </c>
       <c r="AP60">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ60">
         <v>1.44</v>
@@ -13388,7 +13388,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ61">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR61">
         <v>1.2</v>
@@ -14830,7 +14830,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ68">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR68">
         <v>1.5</v>
@@ -15033,7 +15033,7 @@
         <v>0.83</v>
       </c>
       <c r="AP69">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ69">
         <v>0.89</v>
@@ -18332,7 +18332,7 @@
         <v>2</v>
       </c>
       <c r="AQ85">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR85">
         <v>1.72</v>
@@ -18408,6 +18408,212 @@
       </c>
       <c r="BP85">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7483748</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45630.5625</v>
+      </c>
+      <c r="F86">
+        <v>16</v>
+      </c>
+      <c r="G86" t="s">
+        <v>78</v>
+      </c>
+      <c r="H86" t="s">
+        <v>71</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86" t="s">
+        <v>81</v>
+      </c>
+      <c r="P86" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q86">
+        <v>2.63</v>
+      </c>
+      <c r="R86">
+        <v>2.1</v>
+      </c>
+      <c r="S86">
+        <v>4</v>
+      </c>
+      <c r="T86">
+        <v>1.4</v>
+      </c>
+      <c r="U86">
+        <v>2.75</v>
+      </c>
+      <c r="V86">
+        <v>3</v>
+      </c>
+      <c r="W86">
+        <v>1.36</v>
+      </c>
+      <c r="X86">
+        <v>7</v>
+      </c>
+      <c r="Y86">
+        <v>1.08</v>
+      </c>
+      <c r="Z86">
+        <v>1.78</v>
+      </c>
+      <c r="AA86">
+        <v>3.48</v>
+      </c>
+      <c r="AB86">
+        <v>4.64</v>
+      </c>
+      <c r="AC86">
+        <v>1.03</v>
+      </c>
+      <c r="AD86">
+        <v>9</v>
+      </c>
+      <c r="AE86">
+        <v>1.29</v>
+      </c>
+      <c r="AF86">
+        <v>3.3</v>
+      </c>
+      <c r="AG86">
+        <v>2.1</v>
+      </c>
+      <c r="AH86">
+        <v>1.65</v>
+      </c>
+      <c r="AI86">
+        <v>1.83</v>
+      </c>
+      <c r="AJ86">
+        <v>1.83</v>
+      </c>
+      <c r="AK86">
+        <v>1.25</v>
+      </c>
+      <c r="AL86">
+        <v>1.27</v>
+      </c>
+      <c r="AM86">
+        <v>1.72</v>
+      </c>
+      <c r="AN86">
+        <v>2.29</v>
+      </c>
+      <c r="AO86">
+        <v>0.75</v>
+      </c>
+      <c r="AP86">
+        <v>2.13</v>
+      </c>
+      <c r="AQ86">
+        <v>0.78</v>
+      </c>
+      <c r="AR86">
+        <v>1.46</v>
+      </c>
+      <c r="AS86">
+        <v>1.27</v>
+      </c>
+      <c r="AT86">
+        <v>2.73</v>
+      </c>
+      <c r="AU86">
+        <v>3</v>
+      </c>
+      <c r="AV86">
+        <v>2</v>
+      </c>
+      <c r="AW86">
+        <v>15</v>
+      </c>
+      <c r="AX86">
+        <v>5</v>
+      </c>
+      <c r="AY86">
+        <v>20</v>
+      </c>
+      <c r="AZ86">
+        <v>8</v>
+      </c>
+      <c r="BA86">
+        <v>4</v>
+      </c>
+      <c r="BB86">
+        <v>0</v>
+      </c>
+      <c r="BC86">
+        <v>4</v>
+      </c>
+      <c r="BD86">
+        <v>0</v>
+      </c>
+      <c r="BE86">
+        <v>0</v>
+      </c>
+      <c r="BF86">
+        <v>0</v>
+      </c>
+      <c r="BG86">
+        <v>0</v>
+      </c>
+      <c r="BH86">
+        <v>0</v>
+      </c>
+      <c r="BI86">
+        <v>0</v>
+      </c>
+      <c r="BJ86">
+        <v>0</v>
+      </c>
+      <c r="BK86">
+        <v>0</v>
+      </c>
+      <c r="BL86">
+        <v>0</v>
+      </c>
+      <c r="BM86">
+        <v>0</v>
+      </c>
+      <c r="BN86">
+        <v>0</v>
+      </c>
+      <c r="BO86">
+        <v>0</v>
+      </c>
+      <c r="BP86">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="177">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -418,6 +418,12 @@
     <t>['37', '82']</t>
   </si>
   <si>
+    <t>['78', '80']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
     <t>['83']</t>
   </si>
   <si>
@@ -533,6 +539,12 @@
   </si>
   <si>
     <t>['36']</t>
+  </si>
+  <si>
+    <t>['8', '53']</t>
+  </si>
+  <si>
+    <t>['12']</t>
   </si>
 </sst>
 </file>
@@ -894,7 +906,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP86"/>
+  <dimension ref="A1:BP88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1771,7 +1783,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -1852,7 +1864,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ5">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2055,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ6">
         <v>1.33</v>
@@ -2389,7 +2401,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2676,7 +2688,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ9">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2879,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
         <v>1.25</v>
@@ -3088,7 +3100,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ11">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR11">
         <v>1.27</v>
@@ -3213,7 +3225,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -4037,7 +4049,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4324,7 +4336,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ17">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AR17">
         <v>1.21</v>
@@ -4449,7 +4461,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4527,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ18">
         <v>0.78</v>
@@ -4655,7 +4667,7 @@
         <v>93</v>
       </c>
       <c r="P19" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q19">
         <v>1.83</v>
@@ -4939,7 +4951,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
         <v>1.88</v>
@@ -5067,7 +5079,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5148,7 +5160,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ21">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR21">
         <v>1.05</v>
@@ -5273,7 +5285,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5685,7 +5697,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -5891,7 +5903,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6303,7 +6315,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6590,7 +6602,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ28">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AR28">
         <v>1.74</v>
@@ -6715,7 +6727,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -6793,7 +6805,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ29">
         <v>1.25</v>
@@ -6999,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
         <v>0.13</v>
@@ -7127,7 +7139,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -7208,7 +7220,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ31">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR31">
         <v>1.26</v>
@@ -8363,7 +8375,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -8444,7 +8456,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ37">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AR37">
         <v>1.39</v>
@@ -8647,10 +8659,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR38">
         <v>1.19</v>
@@ -8775,7 +8787,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q39">
         <v>1.8</v>
@@ -8853,7 +8865,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ39">
         <v>0.13</v>
@@ -9265,7 +9277,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ41">
         <v>1.44</v>
@@ -9393,7 +9405,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q42">
         <v>1.95</v>
@@ -9805,7 +9817,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10011,7 +10023,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10217,7 +10229,7 @@
         <v>81</v>
       </c>
       <c r="P46" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -10298,7 +10310,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ46">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AR46">
         <v>1.05</v>
@@ -10629,7 +10641,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10707,7 +10719,7 @@
         <v>1.25</v>
       </c>
       <c r="AP48">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ48">
         <v>1.33</v>
@@ -11041,7 +11053,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q50">
         <v>6.1</v>
@@ -11453,7 +11465,7 @@
         <v>81</v>
       </c>
       <c r="P52" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q52">
         <v>2.31</v>
@@ -11534,7 +11546,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ52">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR52">
         <v>1.58</v>
@@ -11865,7 +11877,7 @@
         <v>111</v>
       </c>
       <c r="P54" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12071,7 +12083,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q55">
         <v>2.1</v>
@@ -12277,7 +12289,7 @@
         <v>81</v>
       </c>
       <c r="P56" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -12483,7 +12495,7 @@
         <v>115</v>
       </c>
       <c r="P57" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q57">
         <v>1.95</v>
@@ -12561,7 +12573,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ57">
         <v>0.89</v>
@@ -12689,7 +12701,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12770,7 +12782,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ58">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AR58">
         <v>1.46</v>
@@ -12895,7 +12907,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -13101,7 +13113,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q60">
         <v>3.6</v>
@@ -13179,7 +13191,7 @@
         <v>1.75</v>
       </c>
       <c r="AP60">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ60">
         <v>1.44</v>
@@ -13307,7 +13319,7 @@
         <v>89</v>
       </c>
       <c r="P61" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13513,7 +13525,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -13719,7 +13731,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q63">
         <v>4.3</v>
@@ -13925,7 +13937,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14131,7 +14143,7 @@
         <v>120</v>
       </c>
       <c r="P65" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14418,7 +14430,7 @@
         <v>2</v>
       </c>
       <c r="AQ66">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR66">
         <v>1.87</v>
@@ -14955,7 +14967,7 @@
         <v>123</v>
       </c>
       <c r="P69" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15033,7 +15045,7 @@
         <v>0.83</v>
       </c>
       <c r="AP69">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ69">
         <v>0.89</v>
@@ -15161,7 +15173,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q70">
         <v>3.2</v>
@@ -15239,10 +15251,10 @@
         <v>2.33</v>
       </c>
       <c r="AP70">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ70">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AR70">
         <v>1.99</v>
@@ -15367,7 +15379,7 @@
         <v>114</v>
       </c>
       <c r="P71" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q71">
         <v>4.75</v>
@@ -15654,7 +15666,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ72">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR72">
         <v>1.36</v>
@@ -16191,7 +16203,7 @@
         <v>125</v>
       </c>
       <c r="P75" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q75">
         <v>2.91</v>
@@ -16397,7 +16409,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -16681,7 +16693,7 @@
         <v>2.14</v>
       </c>
       <c r="AP77">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ77">
         <v>1.88</v>
@@ -16809,7 +16821,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -17015,7 +17027,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -17096,7 +17108,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ79">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AR79">
         <v>1.42</v>
@@ -17427,7 +17439,7 @@
         <v>130</v>
       </c>
       <c r="P81" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17633,7 +17645,7 @@
         <v>131</v>
       </c>
       <c r="P82" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q82">
         <v>3.5</v>
@@ -18535,7 +18547,7 @@
         <v>0.75</v>
       </c>
       <c r="AP86">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ86">
         <v>0.78</v>
@@ -18613,6 +18625,418 @@
         <v>0</v>
       </c>
       <c r="BP86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7483762</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45633.45833333334</v>
+      </c>
+      <c r="F87">
+        <v>18</v>
+      </c>
+      <c r="G87" t="s">
+        <v>74</v>
+      </c>
+      <c r="H87" t="s">
+        <v>76</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>2</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87">
+        <v>4</v>
+      </c>
+      <c r="O87" t="s">
+        <v>134</v>
+      </c>
+      <c r="P87" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q87">
+        <v>1.69</v>
+      </c>
+      <c r="R87">
+        <v>2.55</v>
+      </c>
+      <c r="S87">
+        <v>8.6</v>
+      </c>
+      <c r="T87">
+        <v>1.31</v>
+      </c>
+      <c r="U87">
+        <v>3.26</v>
+      </c>
+      <c r="V87">
+        <v>2.4</v>
+      </c>
+      <c r="W87">
+        <v>1.51</v>
+      </c>
+      <c r="X87">
+        <v>5</v>
+      </c>
+      <c r="Y87">
+        <v>1.12</v>
+      </c>
+      <c r="Z87">
+        <v>1.3</v>
+      </c>
+      <c r="AA87">
+        <v>5</v>
+      </c>
+      <c r="AB87">
+        <v>8.5</v>
+      </c>
+      <c r="AC87">
+        <v>1.01</v>
+      </c>
+      <c r="AD87">
+        <v>13</v>
+      </c>
+      <c r="AE87">
+        <v>1.2</v>
+      </c>
+      <c r="AF87">
+        <v>4.2</v>
+      </c>
+      <c r="AG87">
+        <v>1.6</v>
+      </c>
+      <c r="AH87">
+        <v>2.1</v>
+      </c>
+      <c r="AI87">
+        <v>2.19</v>
+      </c>
+      <c r="AJ87">
+        <v>1.63</v>
+      </c>
+      <c r="AK87">
+        <v>1.05</v>
+      </c>
+      <c r="AL87">
+        <v>1.1</v>
+      </c>
+      <c r="AM87">
+        <v>2.8</v>
+      </c>
+      <c r="AN87">
+        <v>2.25</v>
+      </c>
+      <c r="AO87">
+        <v>0.5</v>
+      </c>
+      <c r="AP87">
+        <v>2.11</v>
+      </c>
+      <c r="AQ87">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR87">
+        <v>1.97</v>
+      </c>
+      <c r="AS87">
+        <v>1.16</v>
+      </c>
+      <c r="AT87">
+        <v>3.13</v>
+      </c>
+      <c r="AU87">
+        <v>8</v>
+      </c>
+      <c r="AV87">
+        <v>6</v>
+      </c>
+      <c r="AW87">
+        <v>14</v>
+      </c>
+      <c r="AX87">
+        <v>1</v>
+      </c>
+      <c r="AY87">
+        <v>22</v>
+      </c>
+      <c r="AZ87">
+        <v>7</v>
+      </c>
+      <c r="BA87">
+        <v>12</v>
+      </c>
+      <c r="BB87">
+        <v>1</v>
+      </c>
+      <c r="BC87">
+        <v>13</v>
+      </c>
+      <c r="BD87">
+        <v>0</v>
+      </c>
+      <c r="BE87">
+        <v>0</v>
+      </c>
+      <c r="BF87">
+        <v>0</v>
+      </c>
+      <c r="BG87">
+        <v>0</v>
+      </c>
+      <c r="BH87">
+        <v>0</v>
+      </c>
+      <c r="BI87">
+        <v>0</v>
+      </c>
+      <c r="BJ87">
+        <v>0</v>
+      </c>
+      <c r="BK87">
+        <v>0</v>
+      </c>
+      <c r="BL87">
+        <v>0</v>
+      </c>
+      <c r="BM87">
+        <v>0</v>
+      </c>
+      <c r="BN87">
+        <v>0</v>
+      </c>
+      <c r="BO87">
+        <v>0</v>
+      </c>
+      <c r="BP87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7483758</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45633.5625</v>
+      </c>
+      <c r="F88">
+        <v>18</v>
+      </c>
+      <c r="G88" t="s">
+        <v>78</v>
+      </c>
+      <c r="H88" t="s">
+        <v>70</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>2</v>
+      </c>
+      <c r="O88" t="s">
+        <v>135</v>
+      </c>
+      <c r="P88" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q88">
+        <v>3.75</v>
+      </c>
+      <c r="R88">
+        <v>2.1</v>
+      </c>
+      <c r="S88">
+        <v>2.75</v>
+      </c>
+      <c r="T88">
+        <v>1.4</v>
+      </c>
+      <c r="U88">
+        <v>2.75</v>
+      </c>
+      <c r="V88">
+        <v>3</v>
+      </c>
+      <c r="W88">
+        <v>1.36</v>
+      </c>
+      <c r="X88">
+        <v>7</v>
+      </c>
+      <c r="Y88">
+        <v>1.08</v>
+      </c>
+      <c r="Z88">
+        <v>3.37</v>
+      </c>
+      <c r="AA88">
+        <v>3.41</v>
+      </c>
+      <c r="AB88">
+        <v>2.08</v>
+      </c>
+      <c r="AC88">
+        <v>1.06</v>
+      </c>
+      <c r="AD88">
+        <v>8</v>
+      </c>
+      <c r="AE88">
+        <v>1.31</v>
+      </c>
+      <c r="AF88">
+        <v>3.25</v>
+      </c>
+      <c r="AG88">
+        <v>1.98</v>
+      </c>
+      <c r="AH88">
+        <v>1.77</v>
+      </c>
+      <c r="AI88">
+        <v>1.73</v>
+      </c>
+      <c r="AJ88">
+        <v>2</v>
+      </c>
+      <c r="AK88">
+        <v>1.63</v>
+      </c>
+      <c r="AL88">
+        <v>1.26</v>
+      </c>
+      <c r="AM88">
+        <v>1.23</v>
+      </c>
+      <c r="AN88">
+        <v>2.13</v>
+      </c>
+      <c r="AO88">
+        <v>2.5</v>
+      </c>
+      <c r="AP88">
+        <v>2</v>
+      </c>
+      <c r="AQ88">
+        <v>2.33</v>
+      </c>
+      <c r="AR88">
+        <v>1.51</v>
+      </c>
+      <c r="AS88">
+        <v>1.64</v>
+      </c>
+      <c r="AT88">
+        <v>3.15</v>
+      </c>
+      <c r="AU88">
+        <v>4</v>
+      </c>
+      <c r="AV88">
+        <v>7</v>
+      </c>
+      <c r="AW88">
+        <v>1</v>
+      </c>
+      <c r="AX88">
+        <v>7</v>
+      </c>
+      <c r="AY88">
+        <v>5</v>
+      </c>
+      <c r="AZ88">
+        <v>15</v>
+      </c>
+      <c r="BA88">
+        <v>4</v>
+      </c>
+      <c r="BB88">
+        <v>2</v>
+      </c>
+      <c r="BC88">
+        <v>6</v>
+      </c>
+      <c r="BD88">
+        <v>0</v>
+      </c>
+      <c r="BE88">
+        <v>0</v>
+      </c>
+      <c r="BF88">
+        <v>0</v>
+      </c>
+      <c r="BG88">
+        <v>0</v>
+      </c>
+      <c r="BH88">
+        <v>0</v>
+      </c>
+      <c r="BI88">
+        <v>0</v>
+      </c>
+      <c r="BJ88">
+        <v>0</v>
+      </c>
+      <c r="BK88">
+        <v>0</v>
+      </c>
+      <c r="BL88">
+        <v>0</v>
+      </c>
+      <c r="BM88">
+        <v>0</v>
+      </c>
+      <c r="BN88">
+        <v>0</v>
+      </c>
+      <c r="BO88">
+        <v>0</v>
+      </c>
+      <c r="BP88">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="180">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -418,10 +418,16 @@
     <t>['37', '82']</t>
   </si>
   <si>
+    <t>['24']</t>
+  </si>
+  <si>
     <t>['78', '80']</t>
   </si>
   <si>
-    <t>['24']</t>
+    <t>['25', '53', '75', '84']</t>
+  </si>
+  <si>
+    <t>['5']</t>
   </si>
   <si>
     <t>['83']</t>
@@ -437,9 +443,6 @@
   </si>
   <si>
     <t>['53', '64']</t>
-  </si>
-  <si>
-    <t>['5']</t>
   </si>
   <si>
     <t>['8']</t>
@@ -541,10 +544,16 @@
     <t>['36']</t>
   </si>
   <si>
+    <t>['12']</t>
+  </si>
+  <si>
     <t>['8', '53']</t>
   </si>
   <si>
-    <t>['12']</t>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['34', '38', '79']</t>
   </si>
 </sst>
 </file>
@@ -906,7 +915,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP88"/>
+  <dimension ref="A1:BP91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1246,7 +1255,7 @@
         <v>2</v>
       </c>
       <c r="AQ2">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1449,10 +1458,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ3">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1655,10 +1664,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ4">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1783,7 +1792,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -1861,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ5">
         <v>0.5600000000000001</v>
@@ -2401,7 +2410,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2894,7 +2903,7 @@
         <v>2</v>
       </c>
       <c r="AQ10">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3097,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ11">
         <v>0.5600000000000001</v>
@@ -3225,7 +3234,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3306,7 +3315,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ12">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3509,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ13">
         <v>1.33</v>
@@ -3715,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ14">
         <v>1.33</v>
@@ -3924,7 +3933,7 @@
         <v>2</v>
       </c>
       <c r="AQ15">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR15">
         <v>1.3</v>
@@ -4049,7 +4058,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4130,7 +4139,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ16">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR16">
         <v>1.76</v>
@@ -4461,7 +4470,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4667,7 +4676,7 @@
         <v>93</v>
       </c>
       <c r="P19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q19">
         <v>1.83</v>
@@ -4745,7 +4754,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ19">
         <v>0.89</v>
@@ -4954,7 +4963,7 @@
         <v>2</v>
       </c>
       <c r="AQ20">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR20">
         <v>0.95</v>
@@ -5079,7 +5088,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5285,7 +5294,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5363,7 +5372,7 @@
         <v>0.5</v>
       </c>
       <c r="AP22">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ22">
         <v>1.33</v>
@@ -5572,7 +5581,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ23">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR23">
         <v>0.7</v>
@@ -5697,7 +5706,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -5775,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ24">
         <v>1.44</v>
@@ -5903,7 +5912,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6187,7 +6196,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ26">
         <v>0.78</v>
@@ -6315,7 +6324,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6396,7 +6405,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ27">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR27">
         <v>0.98</v>
@@ -6599,7 +6608,7 @@
         <v>2</v>
       </c>
       <c r="AP28">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ28">
         <v>2.33</v>
@@ -6727,7 +6736,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -6808,7 +6817,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ29">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR29">
         <v>2.04</v>
@@ -7014,7 +7023,7 @@
         <v>2</v>
       </c>
       <c r="AQ30">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR30">
         <v>1.03</v>
@@ -7139,7 +7148,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -7423,7 +7432,7 @@
         <v>1.33</v>
       </c>
       <c r="AP32">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ32">
         <v>1.33</v>
@@ -7629,10 +7638,10 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ33">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR33">
         <v>1.63</v>
@@ -8247,10 +8256,10 @@
         <v>1.2</v>
       </c>
       <c r="AP36">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ36">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR36">
         <v>1.75</v>
@@ -8375,7 +8384,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -8453,7 +8462,7 @@
         <v>1.67</v>
       </c>
       <c r="AP37">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ37">
         <v>2.33</v>
@@ -8787,7 +8796,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q39">
         <v>1.8</v>
@@ -8868,7 +8877,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ39">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR39">
         <v>2.18</v>
@@ -9071,10 +9080,10 @@
         <v>2.25</v>
       </c>
       <c r="AP40">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ40">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR40">
         <v>1.6</v>
@@ -9405,7 +9414,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q42">
         <v>1.95</v>
@@ -9817,7 +9826,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10023,7 +10032,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10229,7 +10238,7 @@
         <v>81</v>
       </c>
       <c r="P46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -10641,7 +10650,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11053,7 +11062,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q50">
         <v>6.1</v>
@@ -11337,10 +11346,10 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ51">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR51">
         <v>1.32</v>
@@ -11465,7 +11474,7 @@
         <v>81</v>
       </c>
       <c r="P52" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q52">
         <v>2.31</v>
@@ -11543,7 +11552,7 @@
         <v>0.2</v>
       </c>
       <c r="AP52">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ52">
         <v>0.5600000000000001</v>
@@ -11877,7 +11886,7 @@
         <v>111</v>
       </c>
       <c r="P54" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -11955,7 +11964,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ54">
         <v>1.33</v>
@@ -12083,7 +12092,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q55">
         <v>2.1</v>
@@ -12164,7 +12173,7 @@
         <v>2</v>
       </c>
       <c r="AQ55">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR55">
         <v>1.92</v>
@@ -12289,7 +12298,7 @@
         <v>81</v>
       </c>
       <c r="P56" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -12495,7 +12504,7 @@
         <v>115</v>
       </c>
       <c r="P57" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q57">
         <v>1.95</v>
@@ -12701,7 +12710,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12907,7 +12916,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -12988,7 +12997,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ59">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR59">
         <v>1.36</v>
@@ -13113,7 +13122,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q60">
         <v>3.6</v>
@@ -13319,7 +13328,7 @@
         <v>89</v>
       </c>
       <c r="P61" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13525,7 +13534,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -13606,7 +13615,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ62">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR62">
         <v>1.13</v>
@@ -13731,7 +13740,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q63">
         <v>4.3</v>
@@ -13809,7 +13818,7 @@
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ63">
         <v>1.44</v>
@@ -13937,7 +13946,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14143,7 +14152,7 @@
         <v>120</v>
       </c>
       <c r="P65" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14221,7 +14230,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ65">
         <v>1.33</v>
@@ -14636,7 +14645,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ67">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR67">
         <v>1.12</v>
@@ -14839,7 +14848,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ68">
         <v>0.78</v>
@@ -14967,7 +14976,7 @@
         <v>123</v>
       </c>
       <c r="P69" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15173,7 +15182,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q70">
         <v>3.2</v>
@@ -15379,7 +15388,7 @@
         <v>114</v>
       </c>
       <c r="P71" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q71">
         <v>4.75</v>
@@ -15460,7 +15469,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ71">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR71">
         <v>1.47</v>
@@ -16203,7 +16212,7 @@
         <v>125</v>
       </c>
       <c r="P75" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q75">
         <v>2.91</v>
@@ -16281,7 +16290,7 @@
         <v>0.71</v>
       </c>
       <c r="AP75">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ75">
         <v>0.89</v>
@@ -16409,7 +16418,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -16696,7 +16705,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ77">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR77">
         <v>2</v>
@@ -16821,7 +16830,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16902,7 +16911,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ78">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR78">
         <v>1.13</v>
@@ -17027,7 +17036,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -17105,7 +17114,7 @@
         <v>2.43</v>
       </c>
       <c r="AP79">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ79">
         <v>2.33</v>
@@ -17439,7 +17448,7 @@
         <v>130</v>
       </c>
       <c r="P81" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17645,7 +17654,7 @@
         <v>131</v>
       </c>
       <c r="P82" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q82">
         <v>3.5</v>
@@ -18633,7 +18642,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7483762</v>
+        <v>7483758</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
@@ -18642,157 +18651,157 @@
         <v>69</v>
       </c>
       <c r="E87" s="2">
-        <v>45633.45833333334</v>
+        <v>45632.875</v>
       </c>
       <c r="F87">
         <v>18</v>
       </c>
       <c r="G87" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H87" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87">
         <v>1</v>
       </c>
       <c r="K87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O87" t="s">
         <v>134</v>
       </c>
       <c r="P87" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q87">
-        <v>1.69</v>
+        <v>3.75</v>
       </c>
       <c r="R87">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="S87">
-        <v>8.6</v>
+        <v>2.75</v>
       </c>
       <c r="T87">
+        <v>1.4</v>
+      </c>
+      <c r="U87">
+        <v>2.75</v>
+      </c>
+      <c r="V87">
+        <v>3</v>
+      </c>
+      <c r="W87">
+        <v>1.36</v>
+      </c>
+      <c r="X87">
+        <v>7</v>
+      </c>
+      <c r="Y87">
+        <v>1.08</v>
+      </c>
+      <c r="Z87">
+        <v>3.37</v>
+      </c>
+      <c r="AA87">
+        <v>3.41</v>
+      </c>
+      <c r="AB87">
+        <v>2.08</v>
+      </c>
+      <c r="AC87">
+        <v>1.06</v>
+      </c>
+      <c r="AD87">
+        <v>8</v>
+      </c>
+      <c r="AE87">
         <v>1.31</v>
       </c>
-      <c r="U87">
-        <v>3.26</v>
-      </c>
-      <c r="V87">
-        <v>2.4</v>
-      </c>
-      <c r="W87">
+      <c r="AF87">
+        <v>3.25</v>
+      </c>
+      <c r="AG87">
+        <v>1.98</v>
+      </c>
+      <c r="AH87">
+        <v>1.77</v>
+      </c>
+      <c r="AI87">
+        <v>1.73</v>
+      </c>
+      <c r="AJ87">
+        <v>2</v>
+      </c>
+      <c r="AK87">
+        <v>1.63</v>
+      </c>
+      <c r="AL87">
+        <v>1.26</v>
+      </c>
+      <c r="AM87">
+        <v>1.23</v>
+      </c>
+      <c r="AN87">
+        <v>2.13</v>
+      </c>
+      <c r="AO87">
+        <v>2.5</v>
+      </c>
+      <c r="AP87">
+        <v>2</v>
+      </c>
+      <c r="AQ87">
+        <v>2.33</v>
+      </c>
+      <c r="AR87">
         <v>1.51</v>
       </c>
-      <c r="X87">
+      <c r="AS87">
+        <v>1.64</v>
+      </c>
+      <c r="AT87">
+        <v>3.15</v>
+      </c>
+      <c r="AU87">
+        <v>4</v>
+      </c>
+      <c r="AV87">
+        <v>7</v>
+      </c>
+      <c r="AW87">
+        <v>1</v>
+      </c>
+      <c r="AX87">
+        <v>7</v>
+      </c>
+      <c r="AY87">
         <v>5</v>
       </c>
-      <c r="Y87">
-        <v>1.12</v>
-      </c>
-      <c r="Z87">
-        <v>1.3</v>
-      </c>
-      <c r="AA87">
-        <v>5</v>
-      </c>
-      <c r="AB87">
-        <v>8.5</v>
-      </c>
-      <c r="AC87">
-        <v>1.01</v>
-      </c>
-      <c r="AD87">
-        <v>13</v>
-      </c>
-      <c r="AE87">
-        <v>1.2</v>
-      </c>
-      <c r="AF87">
-        <v>4.2</v>
-      </c>
-      <c r="AG87">
-        <v>1.6</v>
-      </c>
-      <c r="AH87">
-        <v>2.1</v>
-      </c>
-      <c r="AI87">
-        <v>2.19</v>
-      </c>
-      <c r="AJ87">
-        <v>1.63</v>
-      </c>
-      <c r="AK87">
-        <v>1.05</v>
-      </c>
-      <c r="AL87">
-        <v>1.1</v>
-      </c>
-      <c r="AM87">
-        <v>2.8</v>
-      </c>
-      <c r="AN87">
-        <v>2.25</v>
-      </c>
-      <c r="AO87">
-        <v>0.5</v>
-      </c>
-      <c r="AP87">
-        <v>2.11</v>
-      </c>
-      <c r="AQ87">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AR87">
-        <v>1.97</v>
-      </c>
-      <c r="AS87">
-        <v>1.16</v>
-      </c>
-      <c r="AT87">
-        <v>3.13</v>
-      </c>
-      <c r="AU87">
-        <v>8</v>
-      </c>
-      <c r="AV87">
+      <c r="AZ87">
+        <v>21</v>
+      </c>
+      <c r="BA87">
+        <v>4</v>
+      </c>
+      <c r="BB87">
+        <v>2</v>
+      </c>
+      <c r="BC87">
         <v>6</v>
-      </c>
-      <c r="AW87">
-        <v>14</v>
-      </c>
-      <c r="AX87">
-        <v>1</v>
-      </c>
-      <c r="AY87">
-        <v>22</v>
-      </c>
-      <c r="AZ87">
-        <v>7</v>
-      </c>
-      <c r="BA87">
-        <v>12</v>
-      </c>
-      <c r="BB87">
-        <v>1</v>
-      </c>
-      <c r="BC87">
-        <v>13</v>
       </c>
       <c r="BD87">
         <v>0</v>
@@ -18839,7 +18848,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7483758</v>
+        <v>7483762</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
@@ -18848,195 +18857,813 @@
         <v>69</v>
       </c>
       <c r="E88" s="2">
-        <v>45633.5625</v>
+        <v>45633.45833333334</v>
       </c>
       <c r="F88">
         <v>18</v>
       </c>
       <c r="G88" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H88" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88">
         <v>1</v>
       </c>
       <c r="K88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N88">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O88" t="s">
         <v>135</v>
       </c>
       <c r="P88" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q88">
+        <v>1.69</v>
+      </c>
+      <c r="R88">
+        <v>2.55</v>
+      </c>
+      <c r="S88">
+        <v>8.6</v>
+      </c>
+      <c r="T88">
+        <v>1.31</v>
+      </c>
+      <c r="U88">
+        <v>3.26</v>
+      </c>
+      <c r="V88">
+        <v>2.4</v>
+      </c>
+      <c r="W88">
+        <v>1.51</v>
+      </c>
+      <c r="X88">
+        <v>5</v>
+      </c>
+      <c r="Y88">
+        <v>1.12</v>
+      </c>
+      <c r="Z88">
+        <v>1.3</v>
+      </c>
+      <c r="AA88">
+        <v>5</v>
+      </c>
+      <c r="AB88">
+        <v>8.5</v>
+      </c>
+      <c r="AC88">
+        <v>1.01</v>
+      </c>
+      <c r="AD88">
+        <v>13</v>
+      </c>
+      <c r="AE88">
+        <v>1.2</v>
+      </c>
+      <c r="AF88">
+        <v>4.2</v>
+      </c>
+      <c r="AG88">
+        <v>1.6</v>
+      </c>
+      <c r="AH88">
+        <v>2.1</v>
+      </c>
+      <c r="AI88">
+        <v>2.19</v>
+      </c>
+      <c r="AJ88">
+        <v>1.63</v>
+      </c>
+      <c r="AK88">
+        <v>1.05</v>
+      </c>
+      <c r="AL88">
+        <v>1.1</v>
+      </c>
+      <c r="AM88">
+        <v>2.8</v>
+      </c>
+      <c r="AN88">
+        <v>2.25</v>
+      </c>
+      <c r="AO88">
+        <v>0.5</v>
+      </c>
+      <c r="AP88">
+        <v>2.11</v>
+      </c>
+      <c r="AQ88">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR88">
+        <v>1.97</v>
+      </c>
+      <c r="AS88">
+        <v>1.16</v>
+      </c>
+      <c r="AT88">
+        <v>3.13</v>
+      </c>
+      <c r="AU88">
+        <v>8</v>
+      </c>
+      <c r="AV88">
+        <v>6</v>
+      </c>
+      <c r="AW88">
+        <v>14</v>
+      </c>
+      <c r="AX88">
+        <v>1</v>
+      </c>
+      <c r="AY88">
+        <v>31</v>
+      </c>
+      <c r="AZ88">
+        <v>8</v>
+      </c>
+      <c r="BA88">
+        <v>12</v>
+      </c>
+      <c r="BB88">
+        <v>1</v>
+      </c>
+      <c r="BC88">
+        <v>13</v>
+      </c>
+      <c r="BD88">
+        <v>0</v>
+      </c>
+      <c r="BE88">
+        <v>0</v>
+      </c>
+      <c r="BF88">
+        <v>0</v>
+      </c>
+      <c r="BG88">
+        <v>0</v>
+      </c>
+      <c r="BH88">
+        <v>0</v>
+      </c>
+      <c r="BI88">
+        <v>0</v>
+      </c>
+      <c r="BJ88">
+        <v>0</v>
+      </c>
+      <c r="BK88">
+        <v>0</v>
+      </c>
+      <c r="BL88">
+        <v>0</v>
+      </c>
+      <c r="BM88">
+        <v>0</v>
+      </c>
+      <c r="BN88">
+        <v>0</v>
+      </c>
+      <c r="BO88">
+        <v>0</v>
+      </c>
+      <c r="BP88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7483759</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45634.45833333334</v>
+      </c>
+      <c r="F89">
+        <v>18</v>
+      </c>
+      <c r="G89" t="s">
+        <v>71</v>
+      </c>
+      <c r="H89" t="s">
+        <v>79</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89" t="s">
+        <v>101</v>
+      </c>
+      <c r="P89" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="X89">
+        <v>0</v>
+      </c>
+      <c r="Y89">
+        <v>0</v>
+      </c>
+      <c r="Z89">
+        <v>1.88</v>
+      </c>
+      <c r="AA89">
+        <v>3.25</v>
+      </c>
+      <c r="AB89">
+        <v>3.11</v>
+      </c>
+      <c r="AC89">
+        <v>0</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
+      </c>
+      <c r="AF89">
+        <v>0</v>
+      </c>
+      <c r="AG89">
+        <v>2</v>
+      </c>
+      <c r="AH89">
+        <v>1.8</v>
+      </c>
+      <c r="AI89">
+        <v>0</v>
+      </c>
+      <c r="AJ89">
+        <v>0</v>
+      </c>
+      <c r="AK89">
+        <v>0</v>
+      </c>
+      <c r="AL89">
+        <v>0</v>
+      </c>
+      <c r="AM89">
+        <v>0</v>
+      </c>
+      <c r="AN89">
+        <v>1.38</v>
+      </c>
+      <c r="AO89">
+        <v>1.25</v>
+      </c>
+      <c r="AP89">
+        <v>1.33</v>
+      </c>
+      <c r="AQ89">
+        <v>1.22</v>
+      </c>
+      <c r="AR89">
+        <v>1.41</v>
+      </c>
+      <c r="AS89">
+        <v>1.15</v>
+      </c>
+      <c r="AT89">
+        <v>2.56</v>
+      </c>
+      <c r="AU89">
+        <v>-1</v>
+      </c>
+      <c r="AV89">
+        <v>-1</v>
+      </c>
+      <c r="AW89">
+        <v>-1</v>
+      </c>
+      <c r="AX89">
+        <v>-1</v>
+      </c>
+      <c r="AY89">
+        <v>-1</v>
+      </c>
+      <c r="AZ89">
+        <v>-1</v>
+      </c>
+      <c r="BA89">
+        <v>-1</v>
+      </c>
+      <c r="BB89">
+        <v>-1</v>
+      </c>
+      <c r="BC89">
+        <v>-1</v>
+      </c>
+      <c r="BD89">
+        <v>0</v>
+      </c>
+      <c r="BE89">
+        <v>0</v>
+      </c>
+      <c r="BF89">
+        <v>0</v>
+      </c>
+      <c r="BG89">
+        <v>0</v>
+      </c>
+      <c r="BH89">
+        <v>0</v>
+      </c>
+      <c r="BI89">
+        <v>0</v>
+      </c>
+      <c r="BJ89">
+        <v>0</v>
+      </c>
+      <c r="BK89">
+        <v>0</v>
+      </c>
+      <c r="BL89">
+        <v>0</v>
+      </c>
+      <c r="BM89">
+        <v>0</v>
+      </c>
+      <c r="BN89">
+        <v>0</v>
+      </c>
+      <c r="BO89">
+        <v>0</v>
+      </c>
+      <c r="BP89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7483761</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45634.45833333334</v>
+      </c>
+      <c r="F90">
+        <v>18</v>
+      </c>
+      <c r="G90" t="s">
+        <v>73</v>
+      </c>
+      <c r="H90" t="s">
+        <v>75</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>4</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>4</v>
+      </c>
+      <c r="O90" t="s">
+        <v>136</v>
+      </c>
+      <c r="P90" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q90">
+        <v>1.69</v>
+      </c>
+      <c r="R90">
+        <v>2.55</v>
+      </c>
+      <c r="S90">
+        <v>8.4</v>
+      </c>
+      <c r="T90">
+        <v>1.28</v>
+      </c>
+      <c r="U90">
+        <v>3.46</v>
+      </c>
+      <c r="V90">
+        <v>2.37</v>
+      </c>
+      <c r="W90">
+        <v>1.53</v>
+      </c>
+      <c r="X90">
+        <v>5.3</v>
+      </c>
+      <c r="Y90">
+        <v>1.13</v>
+      </c>
+      <c r="Z90">
+        <v>1.34</v>
+      </c>
+      <c r="AA90">
+        <v>4.5</v>
+      </c>
+      <c r="AB90">
+        <v>6.75</v>
+      </c>
+      <c r="AC90">
+        <v>1.01</v>
+      </c>
+      <c r="AD90">
+        <v>13</v>
+      </c>
+      <c r="AE90">
+        <v>1.19</v>
+      </c>
+      <c r="AF90">
+        <v>4.3</v>
+      </c>
+      <c r="AG90">
+        <v>1.65</v>
+      </c>
+      <c r="AH90">
+        <v>2.15</v>
+      </c>
+      <c r="AI90">
+        <v>2.12</v>
+      </c>
+      <c r="AJ90">
+        <v>1.67</v>
+      </c>
+      <c r="AK90">
+        <v>1.05</v>
+      </c>
+      <c r="AL90">
+        <v>1.1</v>
+      </c>
+      <c r="AM90">
+        <v>2.75</v>
+      </c>
+      <c r="AN90">
+        <v>2.13</v>
+      </c>
+      <c r="AO90">
+        <v>0.13</v>
+      </c>
+      <c r="AP90">
+        <v>2.22</v>
+      </c>
+      <c r="AQ90">
+        <v>0.11</v>
+      </c>
+      <c r="AR90">
+        <v>1.64</v>
+      </c>
+      <c r="AS90">
+        <v>1.33</v>
+      </c>
+      <c r="AT90">
+        <v>2.97</v>
+      </c>
+      <c r="AU90">
+        <v>11</v>
+      </c>
+      <c r="AV90">
+        <v>2</v>
+      </c>
+      <c r="AW90">
+        <v>4</v>
+      </c>
+      <c r="AX90">
+        <v>2</v>
+      </c>
+      <c r="AY90">
+        <v>15</v>
+      </c>
+      <c r="AZ90">
+        <v>4</v>
+      </c>
+      <c r="BA90">
+        <v>10</v>
+      </c>
+      <c r="BB90">
+        <v>4</v>
+      </c>
+      <c r="BC90">
+        <v>14</v>
+      </c>
+      <c r="BD90">
+        <v>1.17</v>
+      </c>
+      <c r="BE90">
+        <v>11</v>
+      </c>
+      <c r="BF90">
+        <v>5.75</v>
+      </c>
+      <c r="BG90">
+        <v>1.27</v>
+      </c>
+      <c r="BH90">
+        <v>3.04</v>
+      </c>
+      <c r="BI90">
+        <v>1.51</v>
+      </c>
+      <c r="BJ90">
+        <v>2.2</v>
+      </c>
+      <c r="BK90">
+        <v>1.93</v>
+      </c>
+      <c r="BL90">
+        <v>1.74</v>
+      </c>
+      <c r="BM90">
+        <v>2.45</v>
+      </c>
+      <c r="BN90">
+        <v>1.41</v>
+      </c>
+      <c r="BO90">
+        <v>3.35</v>
+      </c>
+      <c r="BP90">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7483760</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45634.5625</v>
+      </c>
+      <c r="F91">
+        <v>18</v>
+      </c>
+      <c r="G91" t="s">
+        <v>72</v>
+      </c>
+      <c r="H91" t="s">
+        <v>77</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>2</v>
+      </c>
+      <c r="K91">
+        <v>3</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>3</v>
+      </c>
+      <c r="N91">
+        <v>4</v>
+      </c>
+      <c r="O91" t="s">
+        <v>137</v>
+      </c>
+      <c r="P91" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q91">
         <v>3.75</v>
       </c>
-      <c r="R88">
+      <c r="R91">
+        <v>2.08</v>
+      </c>
+      <c r="S91">
+        <v>2.8</v>
+      </c>
+      <c r="T91">
+        <v>1.42</v>
+      </c>
+      <c r="U91">
+        <v>2.65</v>
+      </c>
+      <c r="V91">
+        <v>2.94</v>
+      </c>
+      <c r="W91">
+        <v>1.37</v>
+      </c>
+      <c r="X91">
+        <v>7.2</v>
+      </c>
+      <c r="Y91">
+        <v>1.07</v>
+      </c>
+      <c r="Z91">
+        <v>3.1</v>
+      </c>
+      <c r="AA91">
+        <v>3.25</v>
+      </c>
+      <c r="AB91">
         <v>2.1</v>
       </c>
-      <c r="S88">
-        <v>2.75</v>
-      </c>
-      <c r="T88">
-        <v>1.4</v>
-      </c>
-      <c r="U88">
-        <v>2.75</v>
-      </c>
-      <c r="V88">
+      <c r="AC91">
+        <v>1.01</v>
+      </c>
+      <c r="AD91">
+        <v>8.1</v>
+      </c>
+      <c r="AE91">
+        <v>1.31</v>
+      </c>
+      <c r="AF91">
+        <v>3.25</v>
+      </c>
+      <c r="AG91">
+        <v>1.9</v>
+      </c>
+      <c r="AH91">
+        <v>1.8</v>
+      </c>
+      <c r="AI91">
+        <v>1.79</v>
+      </c>
+      <c r="AJ91">
+        <v>1.95</v>
+      </c>
+      <c r="AK91">
+        <v>1.53</v>
+      </c>
+      <c r="AL91">
+        <v>1.26</v>
+      </c>
+      <c r="AM91">
+        <v>1.29</v>
+      </c>
+      <c r="AN91">
+        <v>1.63</v>
+      </c>
+      <c r="AO91">
+        <v>1.88</v>
+      </c>
+      <c r="AP91">
+        <v>1.44</v>
+      </c>
+      <c r="AQ91">
+        <v>2</v>
+      </c>
+      <c r="AR91">
+        <v>1.34</v>
+      </c>
+      <c r="AS91">
+        <v>1.32</v>
+      </c>
+      <c r="AT91">
+        <v>2.66</v>
+      </c>
+      <c r="AU91">
+        <v>5</v>
+      </c>
+      <c r="AV91">
+        <v>9</v>
+      </c>
+      <c r="AW91">
+        <v>12</v>
+      </c>
+      <c r="AX91">
+        <v>5</v>
+      </c>
+      <c r="AY91">
+        <v>17</v>
+      </c>
+      <c r="AZ91">
+        <v>14</v>
+      </c>
+      <c r="BA91">
+        <v>8</v>
+      </c>
+      <c r="BB91">
         <v>3</v>
       </c>
-      <c r="W88">
-        <v>1.36</v>
-      </c>
-      <c r="X88">
-        <v>7</v>
-      </c>
-      <c r="Y88">
-        <v>1.08</v>
-      </c>
-      <c r="Z88">
-        <v>3.37</v>
-      </c>
-      <c r="AA88">
-        <v>3.41</v>
-      </c>
-      <c r="AB88">
-        <v>2.08</v>
-      </c>
-      <c r="AC88">
-        <v>1.06</v>
-      </c>
-      <c r="AD88">
-        <v>8</v>
-      </c>
-      <c r="AE88">
-        <v>1.31</v>
-      </c>
-      <c r="AF88">
-        <v>3.25</v>
-      </c>
-      <c r="AG88">
-        <v>1.98</v>
-      </c>
-      <c r="AH88">
-        <v>1.77</v>
-      </c>
-      <c r="AI88">
+      <c r="BC91">
+        <v>11</v>
+      </c>
+      <c r="BD91">
+        <v>2.22</v>
+      </c>
+      <c r="BE91">
+        <v>5.95</v>
+      </c>
+      <c r="BF91">
+        <v>2</v>
+      </c>
+      <c r="BG91">
+        <v>1.41</v>
+      </c>
+      <c r="BH91">
+        <v>2.45</v>
+      </c>
+      <c r="BI91">
         <v>1.73</v>
       </c>
-      <c r="AJ88">
-        <v>2</v>
-      </c>
-      <c r="AK88">
-        <v>1.63</v>
-      </c>
-      <c r="AL88">
-        <v>1.26</v>
-      </c>
-      <c r="AM88">
-        <v>1.23</v>
-      </c>
-      <c r="AN88">
-        <v>2.13</v>
-      </c>
-      <c r="AO88">
-        <v>2.5</v>
-      </c>
-      <c r="AP88">
-        <v>2</v>
-      </c>
-      <c r="AQ88">
-        <v>2.33</v>
-      </c>
-      <c r="AR88">
-        <v>1.51</v>
-      </c>
-      <c r="AS88">
-        <v>1.64</v>
-      </c>
-      <c r="AT88">
-        <v>3.15</v>
-      </c>
-      <c r="AU88">
-        <v>4</v>
-      </c>
-      <c r="AV88">
-        <v>7</v>
-      </c>
-      <c r="AW88">
-        <v>1</v>
-      </c>
-      <c r="AX88">
-        <v>7</v>
-      </c>
-      <c r="AY88">
-        <v>5</v>
-      </c>
-      <c r="AZ88">
-        <v>15</v>
-      </c>
-      <c r="BA88">
-        <v>4</v>
-      </c>
-      <c r="BB88">
-        <v>2</v>
-      </c>
-      <c r="BC88">
-        <v>6</v>
-      </c>
-      <c r="BD88">
-        <v>0</v>
-      </c>
-      <c r="BE88">
-        <v>0</v>
-      </c>
-      <c r="BF88">
-        <v>0</v>
-      </c>
-      <c r="BG88">
-        <v>0</v>
-      </c>
-      <c r="BH88">
-        <v>0</v>
-      </c>
-      <c r="BI88">
-        <v>0</v>
-      </c>
-      <c r="BJ88">
-        <v>0</v>
-      </c>
-      <c r="BK88">
-        <v>0</v>
-      </c>
-      <c r="BL88">
-        <v>0</v>
-      </c>
-      <c r="BM88">
-        <v>0</v>
-      </c>
-      <c r="BN88">
-        <v>0</v>
-      </c>
-      <c r="BO88">
-        <v>0</v>
-      </c>
-      <c r="BP88">
+      <c r="BJ91">
+        <v>2</v>
+      </c>
+      <c r="BK91">
+        <v>2.29</v>
+      </c>
+      <c r="BL91">
+        <v>1.47</v>
+      </c>
+      <c r="BM91">
+        <v>3.14</v>
+      </c>
+      <c r="BN91">
+        <v>1.25</v>
+      </c>
+      <c r="BO91">
+        <v>0</v>
+      </c>
+      <c r="BP91">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -418,10 +418,10 @@
     <t>['37', '82']</t>
   </si>
   <si>
-    <t>['24']</t>
+    <t>['78', '80']</t>
   </si>
   <si>
-    <t>['78', '80']</t>
+    <t>['24']</t>
   </si>
   <si>
     <t>['25', '53', '75', '84']</t>
@@ -544,10 +544,10 @@
     <t>['36']</t>
   </si>
   <si>
-    <t>['12']</t>
+    <t>['8', '53']</t>
   </si>
   <si>
-    <t>['8', '53']</t>
+    <t>['12']</t>
   </si>
   <si>
     <t>['82']</t>
@@ -18642,7 +18642,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7483758</v>
+        <v>7483762</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
@@ -18651,34 +18651,34 @@
         <v>69</v>
       </c>
       <c r="E87" s="2">
-        <v>45632.875</v>
+        <v>45633.45833333334</v>
       </c>
       <c r="F87">
         <v>18</v>
       </c>
       <c r="G87" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H87" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87">
         <v>1</v>
       </c>
       <c r="K87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O87" t="s">
         <v>134</v>
@@ -18687,121 +18687,121 @@
         <v>176</v>
       </c>
       <c r="Q87">
-        <v>3.75</v>
+        <v>1.69</v>
       </c>
       <c r="R87">
+        <v>2.55</v>
+      </c>
+      <c r="S87">
+        <v>8.6</v>
+      </c>
+      <c r="T87">
+        <v>1.31</v>
+      </c>
+      <c r="U87">
+        <v>3.26</v>
+      </c>
+      <c r="V87">
+        <v>2.4</v>
+      </c>
+      <c r="W87">
+        <v>1.51</v>
+      </c>
+      <c r="X87">
+        <v>5</v>
+      </c>
+      <c r="Y87">
+        <v>1.12</v>
+      </c>
+      <c r="Z87">
+        <v>1.3</v>
+      </c>
+      <c r="AA87">
+        <v>5</v>
+      </c>
+      <c r="AB87">
+        <v>8.5</v>
+      </c>
+      <c r="AC87">
+        <v>1.01</v>
+      </c>
+      <c r="AD87">
+        <v>13</v>
+      </c>
+      <c r="AE87">
+        <v>1.2</v>
+      </c>
+      <c r="AF87">
+        <v>4.2</v>
+      </c>
+      <c r="AG87">
+        <v>1.6</v>
+      </c>
+      <c r="AH87">
         <v>2.1</v>
       </c>
-      <c r="S87">
-        <v>2.75</v>
-      </c>
-      <c r="T87">
-        <v>1.4</v>
-      </c>
-      <c r="U87">
-        <v>2.75</v>
-      </c>
-      <c r="V87">
-        <v>3</v>
-      </c>
-      <c r="W87">
-        <v>1.36</v>
-      </c>
-      <c r="X87">
-        <v>7</v>
-      </c>
-      <c r="Y87">
-        <v>1.08</v>
-      </c>
-      <c r="Z87">
-        <v>3.37</v>
-      </c>
-      <c r="AA87">
-        <v>3.41</v>
-      </c>
-      <c r="AB87">
-        <v>2.08</v>
-      </c>
-      <c r="AC87">
-        <v>1.06</v>
-      </c>
-      <c r="AD87">
+      <c r="AI87">
+        <v>2.19</v>
+      </c>
+      <c r="AJ87">
+        <v>1.63</v>
+      </c>
+      <c r="AK87">
+        <v>1.05</v>
+      </c>
+      <c r="AL87">
+        <v>1.1</v>
+      </c>
+      <c r="AM87">
+        <v>2.8</v>
+      </c>
+      <c r="AN87">
+        <v>2.25</v>
+      </c>
+      <c r="AO87">
+        <v>0.5</v>
+      </c>
+      <c r="AP87">
+        <v>2.11</v>
+      </c>
+      <c r="AQ87">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR87">
+        <v>1.97</v>
+      </c>
+      <c r="AS87">
+        <v>1.16</v>
+      </c>
+      <c r="AT87">
+        <v>3.13</v>
+      </c>
+      <c r="AU87">
         <v>8</v>
       </c>
-      <c r="AE87">
-        <v>1.31</v>
-      </c>
-      <c r="AF87">
-        <v>3.25</v>
-      </c>
-      <c r="AG87">
-        <v>1.98</v>
-      </c>
-      <c r="AH87">
-        <v>1.77</v>
-      </c>
-      <c r="AI87">
-        <v>1.73</v>
-      </c>
-      <c r="AJ87">
-        <v>2</v>
-      </c>
-      <c r="AK87">
-        <v>1.63</v>
-      </c>
-      <c r="AL87">
-        <v>1.26</v>
-      </c>
-      <c r="AM87">
-        <v>1.23</v>
-      </c>
-      <c r="AN87">
-        <v>2.13</v>
-      </c>
-      <c r="AO87">
-        <v>2.5</v>
-      </c>
-      <c r="AP87">
-        <v>2</v>
-      </c>
-      <c r="AQ87">
-        <v>2.33</v>
-      </c>
-      <c r="AR87">
-        <v>1.51</v>
-      </c>
-      <c r="AS87">
-        <v>1.64</v>
-      </c>
-      <c r="AT87">
-        <v>3.15</v>
-      </c>
-      <c r="AU87">
-        <v>4</v>
-      </c>
       <c r="AV87">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW87">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AX87">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AY87">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="AZ87">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="BA87">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BB87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC87">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BD87">
         <v>0</v>
@@ -18848,7 +18848,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7483762</v>
+        <v>7483758</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
@@ -18857,34 +18857,34 @@
         <v>69</v>
       </c>
       <c r="E88" s="2">
-        <v>45633.45833333334</v>
+        <v>45633.5625</v>
       </c>
       <c r="F88">
         <v>18</v>
       </c>
       <c r="G88" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H88" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88">
         <v>1</v>
       </c>
       <c r="K88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O88" t="s">
         <v>135</v>
@@ -18893,121 +18893,121 @@
         <v>177</v>
       </c>
       <c r="Q88">
-        <v>1.69</v>
+        <v>3.75</v>
       </c>
       <c r="R88">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="S88">
-        <v>8.6</v>
+        <v>2.75</v>
       </c>
       <c r="T88">
+        <v>1.4</v>
+      </c>
+      <c r="U88">
+        <v>2.75</v>
+      </c>
+      <c r="V88">
+        <v>3</v>
+      </c>
+      <c r="W88">
+        <v>1.36</v>
+      </c>
+      <c r="X88">
+        <v>7</v>
+      </c>
+      <c r="Y88">
+        <v>1.08</v>
+      </c>
+      <c r="Z88">
+        <v>3.37</v>
+      </c>
+      <c r="AA88">
+        <v>3.41</v>
+      </c>
+      <c r="AB88">
+        <v>2.08</v>
+      </c>
+      <c r="AC88">
+        <v>1.06</v>
+      </c>
+      <c r="AD88">
+        <v>8</v>
+      </c>
+      <c r="AE88">
         <v>1.31</v>
       </c>
-      <c r="U88">
-        <v>3.26</v>
-      </c>
-      <c r="V88">
-        <v>2.4</v>
-      </c>
-      <c r="W88">
+      <c r="AF88">
+        <v>3.25</v>
+      </c>
+      <c r="AG88">
+        <v>1.98</v>
+      </c>
+      <c r="AH88">
+        <v>1.77</v>
+      </c>
+      <c r="AI88">
+        <v>1.73</v>
+      </c>
+      <c r="AJ88">
+        <v>2</v>
+      </c>
+      <c r="AK88">
+        <v>1.63</v>
+      </c>
+      <c r="AL88">
+        <v>1.26</v>
+      </c>
+      <c r="AM88">
+        <v>1.23</v>
+      </c>
+      <c r="AN88">
+        <v>2.13</v>
+      </c>
+      <c r="AO88">
+        <v>2.5</v>
+      </c>
+      <c r="AP88">
+        <v>2</v>
+      </c>
+      <c r="AQ88">
+        <v>2.33</v>
+      </c>
+      <c r="AR88">
         <v>1.51</v>
       </c>
-      <c r="X88">
+      <c r="AS88">
+        <v>1.64</v>
+      </c>
+      <c r="AT88">
+        <v>3.15</v>
+      </c>
+      <c r="AU88">
+        <v>4</v>
+      </c>
+      <c r="AV88">
+        <v>7</v>
+      </c>
+      <c r="AW88">
+        <v>1</v>
+      </c>
+      <c r="AX88">
+        <v>7</v>
+      </c>
+      <c r="AY88">
         <v>5</v>
       </c>
-      <c r="Y88">
-        <v>1.12</v>
-      </c>
-      <c r="Z88">
-        <v>1.3</v>
-      </c>
-      <c r="AA88">
-        <v>5</v>
-      </c>
-      <c r="AB88">
-        <v>8.5</v>
-      </c>
-      <c r="AC88">
-        <v>1.01</v>
-      </c>
-      <c r="AD88">
-        <v>13</v>
-      </c>
-      <c r="AE88">
-        <v>1.2</v>
-      </c>
-      <c r="AF88">
-        <v>4.2</v>
-      </c>
-      <c r="AG88">
-        <v>1.6</v>
-      </c>
-      <c r="AH88">
-        <v>2.1</v>
-      </c>
-      <c r="AI88">
-        <v>2.19</v>
-      </c>
-      <c r="AJ88">
-        <v>1.63</v>
-      </c>
-      <c r="AK88">
-        <v>1.05</v>
-      </c>
-      <c r="AL88">
-        <v>1.1</v>
-      </c>
-      <c r="AM88">
-        <v>2.8</v>
-      </c>
-      <c r="AN88">
-        <v>2.25</v>
-      </c>
-      <c r="AO88">
-        <v>0.5</v>
-      </c>
-      <c r="AP88">
-        <v>2.11</v>
-      </c>
-      <c r="AQ88">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AR88">
-        <v>1.97</v>
-      </c>
-      <c r="AS88">
-        <v>1.16</v>
-      </c>
-      <c r="AT88">
-        <v>3.13</v>
-      </c>
-      <c r="AU88">
-        <v>8</v>
-      </c>
-      <c r="AV88">
+      <c r="AZ88">
+        <v>21</v>
+      </c>
+      <c r="BA88">
+        <v>4</v>
+      </c>
+      <c r="BB88">
+        <v>2</v>
+      </c>
+      <c r="BC88">
         <v>6</v>
-      </c>
-      <c r="AW88">
-        <v>14</v>
-      </c>
-      <c r="AX88">
-        <v>1</v>
-      </c>
-      <c r="AY88">
-        <v>31</v>
-      </c>
-      <c r="AZ88">
-        <v>8</v>
-      </c>
-      <c r="BA88">
-        <v>12</v>
-      </c>
-      <c r="BB88">
-        <v>1</v>
-      </c>
-      <c r="BC88">
-        <v>13</v>
       </c>
       <c r="BD88">
         <v>0</v>
@@ -19189,31 +19189,31 @@
         <v>2.56</v>
       </c>
       <c r="AU89">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV89">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AW89">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX89">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY89">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AZ89">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BA89">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BB89">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC89">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD89">
         <v>0</v>
@@ -19398,7 +19398,7 @@
         <v>11</v>
       </c>
       <c r="AV90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW90">
         <v>4</v>
@@ -19407,10 +19407,10 @@
         <v>2</v>
       </c>
       <c r="AY90">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ90">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA90">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20242025.xlsx
@@ -19613,10 +19613,10 @@
         <v>5</v>
       </c>
       <c r="AY91">
+        <v>22</v>
+      </c>
+      <c r="AZ91">
         <v>17</v>
-      </c>
-      <c r="AZ91">
-        <v>14</v>
       </c>
       <c r="BA91">
         <v>8</v>
